--- a/data/escapement/prelim-inseason/EscEstAUCResults_area20-22_2024.xlsx
+++ b/data/escapement/prelim-inseason/EscEstAUCResults_area20-22_2024.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="EscEstAUCResults"/>
   </sheets>
   <definedNames>
-    <definedName name="EscEstAUCResults">'EscEstAUCResults'!$A$1:$I$110</definedName>
+    <definedName name="EscEstAUCResults">'EscEstAUCResults'!$A$1:$I$127</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2219,20 +2219,20 @@
       </c>
       <c r="D55" s="0" t="inlineStr">
         <is>
-          <t>2024/10/11 - 2024/10/24</t>
+          <t>2024/10/11 - 2024/10/23</t>
         </is>
       </c>
       <c r="E55" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F55" s="0">
-        <v>1172684.5</v>
+        <v>905964</v>
       </c>
       <c r="G55" s="0">
         <v>0</v>
       </c>
       <c r="H55" s="0">
-        <v>1302677.97955856</v>
+        <v>973985.993142418</v>
       </c>
       <c r="I55" s="0"/>
     </row>
@@ -2252,20 +2252,20 @@
       </c>
       <c r="D56" s="0" t="inlineStr">
         <is>
-          <t>2024/10/24 - 2024/11/07</t>
+          <t>2024/10/23 - 2024/10/24</t>
         </is>
       </c>
       <c r="E56" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F56" s="0">
-        <v>904134</v>
+        <v>113959.5</v>
       </c>
       <c r="G56" s="0">
         <v>0</v>
       </c>
       <c r="H56" s="0">
-        <v>965810.986145304</v>
+        <v>118290.498999047</v>
       </c>
     </row>
     <row outlineLevel="0" r="57">
@@ -2284,20 +2284,20 @@
       </c>
       <c r="D57" s="0" t="inlineStr">
         <is>
-          <t>2024/11/07 - 2024/11/13</t>
+          <t>2024/10/24 - 2024/11/07</t>
         </is>
       </c>
       <c r="E57" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F57" s="0">
-        <v>1656</v>
+        <v>904134</v>
       </c>
       <c r="G57" s="0">
         <v>0</v>
       </c>
       <c r="H57" s="0">
-        <v>2139.00007100683</v>
+        <v>965810.986145304</v>
       </c>
       <c r="I57" s="0"/>
     </row>
@@ -2317,20 +2317,20 @@
       </c>
       <c r="D58" s="0" t="inlineStr">
         <is>
-          <t>2024/11/13 - 2024/11/15</t>
+          <t>2024/11/07 - 2024/11/13</t>
         </is>
       </c>
       <c r="E58" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F58" s="0">
-        <v>59</v>
+        <v>1656</v>
       </c>
       <c r="G58" s="0">
         <v>0</v>
       </c>
       <c r="H58" s="0">
-        <v>71.0000010041867</v>
+        <v>2139.00007100683</v>
       </c>
       <c r="I58" s="0"/>
     </row>
@@ -2345,22 +2345,26 @@
       </c>
       <c r="C59" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D59" s="0" t="inlineStr">
         <is>
-          <t>2024/07/30 - 2024/07/31</t>
+          <t>2024/11/13 - 2024/11/15</t>
         </is>
       </c>
       <c r="E59" s="0">
-        <v>1</v>
-      </c>
-      <c r="F59" s="0"/>
+        <v>2</v>
+      </c>
+      <c r="F59" s="0">
+        <v>59</v>
+      </c>
       <c r="G59" s="0">
         <v>0</v>
       </c>
-      <c r="H59" s="0"/>
+      <c r="H59" s="0">
+        <v>71.0000010041867</v>
+      </c>
       <c r="I59" s="0"/>
     </row>
     <row outlineLevel="0" r="60">
@@ -2379,24 +2383,18 @@
       </c>
       <c r="D60" s="0" t="inlineStr">
         <is>
-          <t>2024/07/31 - 2024/09/04</t>
+          <t>2024/07/30 - 2024/07/31</t>
         </is>
       </c>
       <c r="E60" s="0">
-        <v>35</v>
-      </c>
-      <c r="F60" s="0">
-        <v>34212.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F60" s="0"/>
       <c r="G60" s="0">
-        <v>402.5</v>
-      </c>
-      <c r="H60" s="0">
-        <v>45602.941100001</v>
-      </c>
-      <c r="I60" s="0">
-        <v>536.505189411777</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" s="0"/>
+      <c r="I60" s="0"/>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="0" t="inlineStr">
@@ -2414,23 +2412,23 @@
       </c>
       <c r="D61" s="0" t="inlineStr">
         <is>
-          <t>2024/09/04 - 2024/09/20</t>
+          <t>2024/07/31 - 2024/09/04</t>
         </is>
       </c>
       <c r="E61" s="0">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F61" s="0">
-        <v>73984</v>
+        <v>34212.5</v>
       </c>
       <c r="G61" s="0">
-        <v>2544</v>
+        <v>402.5</v>
       </c>
       <c r="H61" s="0">
-        <v>85463.0591144079</v>
+        <v>45602.941100001</v>
       </c>
       <c r="I61" s="0">
-        <v>2858.96033733458</v>
+        <v>536.505189411777</v>
       </c>
     </row>
     <row outlineLevel="0" r="62">
@@ -2449,22 +2447,24 @@
       </c>
       <c r="D62" s="0" t="inlineStr">
         <is>
-          <t>2024/09/20 - 2024/10/01</t>
+          <t>2024/09/04 - 2024/09/20</t>
         </is>
       </c>
       <c r="E62" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F62" s="0">
-        <v>73942</v>
+        <v>73984</v>
       </c>
       <c r="G62" s="0">
-        <v>1622.5</v>
+        <v>2544</v>
       </c>
       <c r="H62" s="0">
-        <v>84667.0001413389</v>
-      </c>
-      <c r="I62" s="0"/>
+        <v>85463.0591144079</v>
+      </c>
+      <c r="I62" s="0">
+        <v>2858.96033733458</v>
+      </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="0" t="inlineStr">
@@ -2482,20 +2482,20 @@
       </c>
       <c r="D63" s="0" t="inlineStr">
         <is>
-          <t>2024/10/01 - 2024/10/11</t>
+          <t>2024/09/20 - 2024/10/01</t>
         </is>
       </c>
       <c r="E63" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" s="0">
-        <v>46000</v>
+        <v>73942</v>
       </c>
       <c r="G63" s="0">
-        <v>5</v>
+        <v>1622.5</v>
       </c>
       <c r="H63" s="0">
-        <v>54275.0002132565</v>
+        <v>84667.0001413389</v>
       </c>
       <c r="I63" s="0"/>
     </row>
@@ -2515,24 +2515,22 @@
       </c>
       <c r="D64" s="0" t="inlineStr">
         <is>
-          <t>2024/10/11 - 2024/10/24</t>
+          <t>2024/10/01 - 2024/10/11</t>
         </is>
       </c>
       <c r="E64" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F64" s="0">
-        <v>20072</v>
+        <v>46000</v>
       </c>
       <c r="G64" s="0">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H64" s="0">
-        <v>23296.0003831638</v>
-      </c>
-      <c r="I64" s="0">
-        <v>15.2091399424945</v>
-      </c>
+        <v>54275.0002132565</v>
+      </c>
+      <c r="I64" s="0"/>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="0" t="inlineStr">
@@ -2550,24 +2548,18 @@
       </c>
       <c r="D65" s="0" t="inlineStr">
         <is>
-          <t>2024/10/24 - 2024/11/07</t>
+          <t>2024/10/11 - 2024/10/23</t>
         </is>
       </c>
       <c r="E65" s="0">
-        <v>14</v>
-      </c>
-      <c r="F65" s="0">
-        <v>301</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F65" s="0"/>
       <c r="G65" s="0">
-        <v>7</v>
-      </c>
-      <c r="H65" s="0">
-        <v>357.000008336627</v>
-      </c>
-      <c r="I65" s="0">
-        <v>8.25641048354275</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H65" s="0"/>
+      <c r="I65" s="0"/>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="0" t="inlineStr">
@@ -2585,24 +2577,18 @@
       </c>
       <c r="D66" s="0" t="inlineStr">
         <is>
-          <t>2024/11/07 - 2024/11/13</t>
+          <t>2024/10/23 - 2024/10/24</t>
         </is>
       </c>
       <c r="E66" s="0">
-        <v>6</v>
-      </c>
-      <c r="F66" s="0">
-        <v>24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F66" s="0"/>
       <c r="G66" s="0">
-        <v>0</v>
-      </c>
-      <c r="H66" s="0">
-        <v>29.9999995529652</v>
-      </c>
-      <c r="I66" s="0">
-        <v>0</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="H66" s="0"/>
+      <c r="I66" s="0"/>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="0" t="inlineStr">
@@ -2620,23 +2606,23 @@
       </c>
       <c r="D67" s="0" t="inlineStr">
         <is>
-          <t>2024/11/13 - 2024/11/15</t>
+          <t>2024/10/24 - 2024/11/07</t>
         </is>
       </c>
       <c r="E67" s="0">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F67" s="0">
-        <v>4</v>
+        <v>301</v>
       </c>
       <c r="G67" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H67" s="0">
-        <v>4.99999992549419</v>
+        <v>357.000008336627</v>
       </c>
       <c r="I67" s="0">
-        <v>0</v>
+        <v>8.25641048354275</v>
       </c>
     </row>
     <row outlineLevel="0" r="68">
@@ -2650,18 +2636,27 @@
       </c>
       <c r="C68" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D68" s="0" t="inlineStr">
         <is>
-          <t>2024/07/30 - 2024/07/31</t>
+          <t>2024/11/07 - 2024/11/13</t>
         </is>
       </c>
       <c r="E68" s="0">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="F68" s="0">
+        <v>24</v>
       </c>
       <c r="G68" s="0">
+        <v>0</v>
+      </c>
+      <c r="H68" s="0">
+        <v>29.9999995529652</v>
+      </c>
+      <c r="I68" s="0">
         <v>0</v>
       </c>
     </row>
@@ -2676,28 +2671,28 @@
       </c>
       <c r="C69" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D69" s="0" t="inlineStr">
         <is>
-          <t>2024/07/31 - 2024/09/04</t>
+          <t>2024/11/13 - 2024/11/15</t>
         </is>
       </c>
       <c r="E69" s="0">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="F69" s="0">
-        <v>2100</v>
+        <v>4</v>
       </c>
       <c r="G69" s="0">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="H69" s="0">
-        <v>2170.00006467104</v>
+        <v>4.99999992549419</v>
       </c>
       <c r="I69" s="0">
-        <v>108.500003233552</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="70">
@@ -2716,24 +2711,18 @@
       </c>
       <c r="D70" s="0" t="inlineStr">
         <is>
-          <t>2024/09/04 - 2024/09/20</t>
+          <t>2024/07/30 - 2024/07/31</t>
         </is>
       </c>
       <c r="E70" s="0">
-        <v>16</v>
-      </c>
-      <c r="F70" s="0">
-        <v>1016</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F70" s="0"/>
       <c r="G70" s="0">
-        <v>48</v>
-      </c>
-      <c r="H70" s="0">
-        <v>1048.0000295639</v>
-      </c>
-      <c r="I70" s="0">
-        <v>49.6000014781952</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" s="0"/>
+      <c r="I70" s="0"/>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="0" t="inlineStr">
@@ -2751,23 +2740,23 @@
       </c>
       <c r="D71" s="0" t="inlineStr">
         <is>
-          <t>2024/09/20 - 2024/10/01</t>
+          <t>2024/07/31 - 2024/09/04</t>
         </is>
       </c>
       <c r="E71" s="0">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F71" s="0">
-        <v>1111</v>
+        <v>2100</v>
       </c>
       <c r="G71" s="0">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H71" s="0">
-        <v>1314.50002808204</v>
+        <v>2170.00006467104</v>
       </c>
       <c r="I71" s="0">
-        <v>130.871797752004</v>
+        <v>108.500003233552</v>
       </c>
     </row>
     <row outlineLevel="0" r="72">
@@ -2786,23 +2775,23 @@
       </c>
       <c r="D72" s="0" t="inlineStr">
         <is>
-          <t>2024/10/01 - 2024/10/11</t>
+          <t>2024/09/04 - 2024/09/20</t>
         </is>
       </c>
       <c r="E72" s="0">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F72" s="0">
-        <v>8445</v>
+        <v>1016</v>
       </c>
       <c r="G72" s="0">
-        <v>965</v>
+        <v>48</v>
       </c>
       <c r="H72" s="0">
-        <v>9819.99990114932</v>
+        <v>1048.0000295639</v>
       </c>
       <c r="I72" s="0">
-        <v>1121.77220528904</v>
+        <v>49.6000014781952</v>
       </c>
     </row>
     <row outlineLevel="0" r="73">
@@ -2821,23 +2810,23 @@
       </c>
       <c r="D73" s="0" t="inlineStr">
         <is>
-          <t>2024/10/11 - 2024/10/24</t>
+          <t>2024/09/20 - 2024/10/01</t>
         </is>
       </c>
       <c r="E73" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F73" s="0">
-        <v>9847.5</v>
+        <v>1111</v>
       </c>
       <c r="G73" s="0">
-        <v>1150.5</v>
+        <v>110</v>
       </c>
       <c r="H73" s="0">
-        <v>11407.4998349116</v>
+        <v>1314.50002808204</v>
       </c>
       <c r="I73" s="0">
-        <v>1332.1133866348</v>
+        <v>130.871797752004</v>
       </c>
     </row>
     <row outlineLevel="0" r="74">
@@ -2856,23 +2845,23 @@
       </c>
       <c r="D74" s="0" t="inlineStr">
         <is>
-          <t>2024/10/24 - 2024/11/07</t>
+          <t>2024/10/01 - 2024/10/11</t>
         </is>
       </c>
       <c r="E74" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F74" s="0">
-        <v>9261</v>
+        <v>8445</v>
       </c>
       <c r="G74" s="0">
-        <v>1064</v>
+        <v>965</v>
       </c>
       <c r="H74" s="0">
-        <v>11403.0000519265</v>
+        <v>9819.99990114932</v>
       </c>
       <c r="I74" s="0">
-        <v>1308.55914540672</v>
+        <v>1121.77220528904</v>
       </c>
     </row>
     <row outlineLevel="0" r="75">
@@ -2891,24 +2880,18 @@
       </c>
       <c r="D75" s="0" t="inlineStr">
         <is>
-          <t>2024/11/07 - 2024/11/13</t>
+          <t>2024/10/11 - 2024/10/23</t>
         </is>
       </c>
       <c r="E75" s="0">
-        <v>6</v>
-      </c>
-      <c r="F75" s="0">
-        <v>5784</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F75" s="0"/>
       <c r="G75" s="0">
-        <v>744</v>
-      </c>
-      <c r="H75" s="0">
-        <v>6696.00002382098</v>
-      </c>
-      <c r="I75" s="0">
-        <v>847.668205472738</v>
-      </c>
+        <v>1038</v>
+      </c>
+      <c r="H75" s="0"/>
+      <c r="I75" s="0"/>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="0" t="inlineStr">
@@ -2926,24 +2909,18 @@
       </c>
       <c r="D76" s="0" t="inlineStr">
         <is>
-          <t>2024/11/13 - 2024/11/15</t>
+          <t>2024/10/23 - 2024/10/24</t>
         </is>
       </c>
       <c r="E76" s="0">
+        <v>1</v>
+      </c>
+      <c r="F76" s="0"/>
+      <c r="G76" s="0">
         <v>2</v>
       </c>
-      <c r="F76" s="0">
-        <v>626</v>
-      </c>
-      <c r="G76" s="0">
-        <v>100</v>
-      </c>
-      <c r="H76" s="0">
-        <v>626</v>
-      </c>
-      <c r="I76" s="0">
-        <v>100</v>
-      </c>
+      <c r="H76" s="0"/>
+      <c r="I76" s="0"/>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="0" t="inlineStr">
@@ -2956,22 +2933,29 @@
       </c>
       <c r="C77" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D77" s="0" t="inlineStr">
         <is>
-          <t>2024/07/30 - 2024/07/31</t>
+          <t>2024/10/24 - 2024/11/07</t>
         </is>
       </c>
       <c r="E77" s="0">
-        <v>1</v>
-      </c>
-      <c r="F77" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="F77" s="0">
+        <v>9261</v>
+      </c>
       <c r="G77" s="0">
-        <v>0</v>
-      </c>
-      <c r="H77" s="0"/>
+        <v>1064</v>
+      </c>
+      <c r="H77" s="0">
+        <v>11403.0000519265</v>
+      </c>
+      <c r="I77" s="0">
+        <v>1308.55914540672</v>
+      </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="0" t="inlineStr">
@@ -2984,25 +2968,28 @@
       </c>
       <c r="C78" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D78" s="0" t="inlineStr">
         <is>
-          <t>2024/07/31 - 2024/09/04</t>
+          <t>2024/11/07 - 2024/11/13</t>
         </is>
       </c>
       <c r="E78" s="0">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="F78" s="0">
-        <v>0</v>
+        <v>5784</v>
       </c>
       <c r="G78" s="0">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="H78" s="0">
-        <v>0</v>
+        <v>6696.00002382098</v>
+      </c>
+      <c r="I78" s="0">
+        <v>847.668205472738</v>
       </c>
     </row>
     <row outlineLevel="0" r="79">
@@ -3016,22 +3003,29 @@
       </c>
       <c r="C79" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D79" s="0" t="inlineStr">
         <is>
-          <t>2024/09/04 - 2024/09/20</t>
+          <t>2024/11/13 - 2024/11/15</t>
         </is>
       </c>
       <c r="E79" s="0">
-        <v>16</v>
-      </c>
-      <c r="F79" s="0"/>
+        <v>2</v>
+      </c>
+      <c r="F79" s="0">
+        <v>626</v>
+      </c>
       <c r="G79" s="0">
-        <v>0</v>
-      </c>
-      <c r="H79" s="0"/>
+        <v>100</v>
+      </c>
+      <c r="H79" s="0">
+        <v>626</v>
+      </c>
+      <c r="I79" s="0">
+        <v>100</v>
+      </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="0" t="inlineStr">
@@ -3049,11 +3043,11 @@
       </c>
       <c r="D80" s="0" t="inlineStr">
         <is>
-          <t>2024/09/20 - 2024/10/01</t>
+          <t>2024/07/30 - 2024/07/31</t>
         </is>
       </c>
       <c r="E80" s="0">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G80" s="0">
         <v>0</v>
@@ -3075,13 +3069,19 @@
       </c>
       <c r="D81" s="0" t="inlineStr">
         <is>
-          <t>2024/10/01 - 2024/10/11</t>
+          <t>2024/07/31 - 2024/09/04</t>
         </is>
       </c>
       <c r="E81" s="0">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="F81" s="0">
+        <v>0</v>
       </c>
       <c r="G81" s="0">
+        <v>0</v>
+      </c>
+      <c r="H81" s="0">
         <v>0</v>
       </c>
     </row>
@@ -3101,11 +3101,11 @@
       </c>
       <c r="D82" s="0" t="inlineStr">
         <is>
-          <t>2024/10/11 - 2024/10/24</t>
+          <t>2024/09/04 - 2024/09/20</t>
         </is>
       </c>
       <c r="E82" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G82" s="0">
         <v>0</v>
@@ -3127,11 +3127,11 @@
       </c>
       <c r="D83" s="0" t="inlineStr">
         <is>
-          <t>2024/10/24 - 2024/11/07</t>
+          <t>2024/09/20 - 2024/10/01</t>
         </is>
       </c>
       <c r="E83" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F83" s="0"/>
       <c r="G83" s="0">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="D84" s="0" t="inlineStr">
         <is>
-          <t>2024/11/07 - 2024/11/13</t>
+          <t>2024/10/01 - 2024/10/11</t>
         </is>
       </c>
       <c r="E84" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F84" s="0"/>
       <c r="G84" s="0">
@@ -3185,11 +3185,11 @@
       </c>
       <c r="D85" s="0" t="inlineStr">
         <is>
-          <t>2024/11/13 - 2024/11/15</t>
+          <t>2024/10/11 - 2024/10/23</t>
         </is>
       </c>
       <c r="E85" s="0">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F85" s="0"/>
       <c r="G85" s="0">
@@ -3209,26 +3209,22 @@
       </c>
       <c r="C86" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D86" s="0" t="inlineStr">
         <is>
-          <t>2024/07/30 - 2024/07/31</t>
+          <t>2024/10/23 - 2024/10/24</t>
         </is>
       </c>
       <c r="E86" s="0">
         <v>1</v>
       </c>
-      <c r="F86" s="0">
-        <v>32.5</v>
-      </c>
+      <c r="F86" s="0"/>
       <c r="G86" s="0">
         <v>0</v>
       </c>
-      <c r="H86" s="0">
-        <v>44.1176454168005</v>
-      </c>
+      <c r="H86" s="0"/>
       <c r="I86" s="0"/>
     </row>
     <row outlineLevel="0" r="87">
@@ -3242,26 +3238,22 @@
       </c>
       <c r="C87" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D87" s="0" t="inlineStr">
         <is>
-          <t>2024/07/31 - 2024/09/04</t>
+          <t>2024/10/24 - 2024/11/07</t>
         </is>
       </c>
       <c r="E87" s="0">
-        <v>35</v>
-      </c>
-      <c r="F87" s="0">
-        <v>5162.5</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F87" s="0"/>
       <c r="G87" s="0">
         <v>0</v>
       </c>
-      <c r="H87" s="0">
-        <v>5726.61758742022</v>
-      </c>
+      <c r="H87" s="0"/>
       <c r="I87" s="0"/>
     </row>
     <row outlineLevel="0" r="88">
@@ -3275,26 +3267,22 @@
       </c>
       <c r="C88" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D88" s="0" t="inlineStr">
         <is>
-          <t>2024/09/04 - 2024/09/20</t>
+          <t>2024/11/07 - 2024/11/13</t>
         </is>
       </c>
       <c r="E88" s="0">
-        <v>16</v>
-      </c>
-      <c r="F88" s="0">
-        <v>3080</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F88" s="0"/>
       <c r="G88" s="0">
         <v>0</v>
       </c>
-      <c r="H88" s="0">
-        <v>3216.000028093</v>
-      </c>
+      <c r="H88" s="0"/>
       <c r="I88" s="0"/>
     </row>
     <row outlineLevel="0" r="89">
@@ -3308,26 +3296,22 @@
       </c>
       <c r="C89" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D89" s="0" t="inlineStr">
         <is>
-          <t>2024/09/20 - 2024/10/01</t>
+          <t>2024/11/13 - 2024/11/15</t>
         </is>
       </c>
       <c r="E89" s="0">
-        <v>11</v>
-      </c>
-      <c r="F89" s="0">
-        <v>1083.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F89" s="0"/>
       <c r="G89" s="0">
         <v>0</v>
       </c>
-      <c r="H89" s="0">
-        <v>1330.9999984134</v>
-      </c>
+      <c r="H89" s="0"/>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="0" t="inlineStr">
@@ -3345,20 +3329,20 @@
       </c>
       <c r="D90" s="0" t="inlineStr">
         <is>
-          <t>2024/10/01 - 2024/10/11</t>
+          <t>2024/07/30 - 2024/07/31</t>
         </is>
       </c>
       <c r="E90" s="0">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F90" s="0">
-        <v>530</v>
+        <v>32.5</v>
       </c>
       <c r="G90" s="0">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H90" s="0">
-        <v>769.999971299744</v>
+        <v>44.1176454168005</v>
       </c>
       <c r="I90" s="0"/>
     </row>
@@ -3378,20 +3362,20 @@
       </c>
       <c r="D91" s="0" t="inlineStr">
         <is>
-          <t>2024/10/11 - 2024/10/24</t>
+          <t>2024/07/31 - 2024/09/04</t>
         </is>
       </c>
       <c r="E91" s="0">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F91" s="0">
-        <v>429</v>
+        <v>5162.5</v>
       </c>
       <c r="G91" s="0">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="H91" s="0">
-        <v>500.499988195487</v>
+        <v>5726.61758742022</v>
       </c>
     </row>
     <row outlineLevel="0" r="92">
@@ -3410,17 +3394,21 @@
       </c>
       <c r="D92" s="0" t="inlineStr">
         <is>
-          <t>2024/10/24 - 2024/11/07</t>
+          <t>2024/09/04 - 2024/09/20</t>
         </is>
       </c>
       <c r="E92" s="0">
-        <v>14</v>
-      </c>
-      <c r="F92" s="0"/>
+        <v>16</v>
+      </c>
+      <c r="F92" s="0">
+        <v>3080</v>
+      </c>
       <c r="G92" s="0">
         <v>0</v>
       </c>
-      <c r="H92" s="0"/>
+      <c r="H92" s="0">
+        <v>3216.000028093</v>
+      </c>
       <c r="I92" s="0"/>
     </row>
     <row outlineLevel="0" r="93">
@@ -3439,14 +3427,20 @@
       </c>
       <c r="D93" s="0" t="inlineStr">
         <is>
-          <t>2024/11/07 - 2024/11/13</t>
+          <t>2024/09/20 - 2024/10/01</t>
         </is>
       </c>
       <c r="E93" s="0">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="F93" s="0">
+        <v>1083.5</v>
       </c>
       <c r="G93" s="0">
         <v>0</v>
+      </c>
+      <c r="H93" s="0">
+        <v>1330.9999984134</v>
       </c>
     </row>
     <row outlineLevel="0" r="94">
@@ -3465,23 +3459,27 @@
       </c>
       <c r="D94" s="0" t="inlineStr">
         <is>
-          <t>2024/11/13 - 2024/11/15</t>
+          <t>2024/10/01 - 2024/10/11</t>
         </is>
       </c>
       <c r="E94" s="0">
-        <v>2</v>
-      </c>
-      <c r="F94" s="0"/>
+        <v>10</v>
+      </c>
+      <c r="F94" s="0">
+        <v>530</v>
+      </c>
       <c r="G94" s="0">
-        <v>0</v>
-      </c>
-      <c r="H94" s="0"/>
+        <v>5</v>
+      </c>
+      <c r="H94" s="0">
+        <v>769.999971299744</v>
+      </c>
       <c r="I94" s="0"/>
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="0" t="inlineStr">
         <is>
-          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B95" s="0">
@@ -3489,34 +3487,28 @@
       </c>
       <c r="C95" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D95" s="0" t="inlineStr">
         <is>
-          <t>2024/09/01 - 2024/11/01</t>
+          <t>2024/10/11 - 2024/10/23</t>
         </is>
       </c>
       <c r="E95" s="0">
-        <v>61</v>
-      </c>
-      <c r="F95" s="0">
-        <v>44255.5</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F95" s="0"/>
       <c r="G95" s="0">
-        <v>0</v>
-      </c>
-      <c r="H95" s="0">
-        <v>51760.819362963</v>
-      </c>
-      <c r="I95" s="0">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H95" s="0"/>
+      <c r="I95" s="0"/>
     </row>
     <row outlineLevel="0" r="96">
       <c r="A96" s="0" t="inlineStr">
         <is>
-          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B96" s="0">
@@ -3524,34 +3516,28 @@
       </c>
       <c r="C96" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D96" s="0" t="inlineStr">
         <is>
-          <t>2024/11/01 - 2024/11/15</t>
+          <t>2024/10/23 - 2024/10/24</t>
         </is>
       </c>
       <c r="E96" s="0">
-        <v>14</v>
-      </c>
-      <c r="F96" s="0">
-        <v>10157</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F96" s="0"/>
       <c r="G96" s="0">
         <v>0</v>
       </c>
-      <c r="H96" s="0">
-        <v>11879.5323128112</v>
-      </c>
-      <c r="I96" s="0">
-        <v>0</v>
-      </c>
+      <c r="H96" s="0"/>
+      <c r="I96" s="0"/>
     </row>
     <row outlineLevel="0" r="97">
       <c r="A97" s="0" t="inlineStr">
         <is>
-          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B97" s="0">
@@ -3559,34 +3545,28 @@
       </c>
       <c r="C97" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D97" s="0" t="inlineStr">
         <is>
-          <t>2024/09/01 - 2024/11/01</t>
+          <t>2024/10/24 - 2024/11/07</t>
         </is>
       </c>
       <c r="E97" s="0">
-        <v>61</v>
-      </c>
-      <c r="F97" s="0">
-        <v>30.5</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F97" s="0"/>
       <c r="G97" s="0">
         <v>0</v>
       </c>
-      <c r="H97" s="0">
-        <v>112.962958474218</v>
-      </c>
-      <c r="I97" s="0">
-        <v>0</v>
-      </c>
+      <c r="H97" s="0"/>
+      <c r="I97" s="0"/>
     </row>
     <row outlineLevel="0" r="98">
       <c r="A98" s="0" t="inlineStr">
         <is>
-          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B98" s="0">
@@ -3594,34 +3574,28 @@
       </c>
       <c r="C98" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D98" s="0" t="inlineStr">
         <is>
-          <t>2024/11/01 - 2024/11/15</t>
+          <t>2024/11/07 - 2024/11/13</t>
         </is>
       </c>
       <c r="E98" s="0">
-        <v>14</v>
-      </c>
-      <c r="F98" s="0">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F98" s="0"/>
       <c r="G98" s="0">
         <v>0</v>
       </c>
-      <c r="H98" s="0">
-        <v>25.9259248957222</v>
-      </c>
-      <c r="I98" s="0">
-        <v>0</v>
-      </c>
+      <c r="H98" s="0"/>
+      <c r="I98" s="0"/>
     </row>
     <row outlineLevel="0" r="99">
       <c r="A99" s="0" t="inlineStr">
         <is>
-          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B99" s="0">
@@ -3629,29 +3603,23 @@
       </c>
       <c r="C99" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D99" s="0" t="inlineStr">
         <is>
-          <t>2024/09/01 - 2024/11/01</t>
+          <t>2024/11/13 - 2024/11/15</t>
         </is>
       </c>
       <c r="E99" s="0">
-        <v>61</v>
-      </c>
-      <c r="F99" s="0">
-        <v>854</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F99" s="0"/>
       <c r="G99" s="0">
-        <v>152.5</v>
-      </c>
-      <c r="H99" s="0">
-        <v>1067.49998409301</v>
-      </c>
-      <c r="I99" s="0">
-        <v>190.624997159466</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" s="0"/>
+      <c r="I99" s="0"/>
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="0" t="inlineStr">
@@ -3664,28 +3632,28 @@
       </c>
       <c r="C100" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D100" s="0" t="inlineStr">
         <is>
-          <t>2024/11/01 - 2024/11/15</t>
+          <t>2024/09/01 - 2024/11/01</t>
         </is>
       </c>
       <c r="E100" s="0">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F100" s="0">
-        <v>196</v>
+        <v>44255.5</v>
       </c>
       <c r="G100" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H100" s="0">
-        <v>244.999996349216</v>
+        <v>51760.819362963</v>
       </c>
       <c r="I100" s="0">
-        <v>43.7499993480742</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="101">
@@ -3699,18 +3667,27 @@
       </c>
       <c r="C101" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D101" s="0" t="inlineStr">
         <is>
-          <t>2024/09/01 - 2024/11/01</t>
+          <t>2024/11/01 - 2024/11/15</t>
         </is>
       </c>
       <c r="E101" s="0">
-        <v>61</v>
+        <v>14</v>
+      </c>
+      <c r="F101" s="0">
+        <v>10157</v>
       </c>
       <c r="G101" s="0">
+        <v>0</v>
+      </c>
+      <c r="H101" s="0">
+        <v>11879.5323128112</v>
+      </c>
+      <c r="I101" s="0">
         <v>0</v>
       </c>
     </row>
@@ -3725,25 +3702,25 @@
       </c>
       <c r="C102" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D102" s="0" t="inlineStr">
         <is>
-          <t>2024/11/01 - 2024/11/15</t>
+          <t>2024/09/01 - 2024/11/01</t>
         </is>
       </c>
       <c r="E102" s="0">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F102" s="0">
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="G102" s="0">
         <v>0</v>
       </c>
       <c r="H102" s="0">
-        <v>0</v>
+        <v>112.962958474218</v>
       </c>
       <c r="I102" s="0">
         <v>0</v>
@@ -3752,7 +3729,7 @@
     <row outlineLevel="0" r="103">
       <c r="A103" s="0" t="inlineStr">
         <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B103" s="0">
@@ -3760,31 +3737,34 @@
       </c>
       <c r="C103" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D103" s="0" t="inlineStr">
         <is>
-          <t>2024/09/01 - 2024/11/01</t>
+          <t>2024/11/01 - 2024/11/15</t>
         </is>
       </c>
       <c r="E103" s="0">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F103" s="0">
-        <v>823.5</v>
+        <v>7</v>
       </c>
       <c r="G103" s="0">
         <v>0</v>
       </c>
       <c r="H103" s="0">
-        <v>915.000024239223</v>
+        <v>25.9259248957222</v>
+      </c>
+      <c r="I103" s="0">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="104">
       <c r="A104" s="0" t="inlineStr">
         <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B104" s="0">
@@ -3792,34 +3772,34 @@
       </c>
       <c r="C104" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D104" s="0" t="inlineStr">
         <is>
-          <t>2024/11/01 - 2024/11/15</t>
+          <t>2024/09/01 - 2024/11/01</t>
         </is>
       </c>
       <c r="E104" s="0">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F104" s="0">
-        <v>189</v>
+        <v>854</v>
       </c>
       <c r="G104" s="0">
-        <v>0</v>
+        <v>152.5</v>
       </c>
       <c r="H104" s="0">
-        <v>210.0000055631</v>
+        <v>1067.49998409301</v>
       </c>
       <c r="I104" s="0">
-        <v>0</v>
+        <v>190.624997159466</v>
       </c>
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="0" t="inlineStr">
         <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B105" s="0">
@@ -3827,25 +3807,34 @@
       </c>
       <c r="C105" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D105" s="0" t="inlineStr">
         <is>
-          <t>2024/09/01 - 2024/11/01</t>
+          <t>2024/11/01 - 2024/11/15</t>
         </is>
       </c>
       <c r="E105" s="0">
-        <v>61</v>
+        <v>14</v>
+      </c>
+      <c r="F105" s="0">
+        <v>196</v>
       </c>
       <c r="G105" s="0">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="H105" s="0">
+        <v>244.999996349216</v>
+      </c>
+      <c r="I105" s="0">
+        <v>43.7499993480742</v>
       </c>
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="0" t="inlineStr">
         <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B106" s="0">
@@ -3853,34 +3842,28 @@
       </c>
       <c r="C106" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D106" s="0" t="inlineStr">
         <is>
-          <t>2024/11/01 - 2024/11/15</t>
+          <t>2024/09/01 - 2024/11/01</t>
         </is>
       </c>
       <c r="E106" s="0">
-        <v>14</v>
-      </c>
-      <c r="F106" s="0">
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F106" s="0"/>
       <c r="G106" s="0">
         <v>0</v>
       </c>
-      <c r="H106" s="0">
-        <v>0</v>
-      </c>
-      <c r="I106" s="0">
-        <v>0</v>
-      </c>
+      <c r="H106" s="0"/>
+      <c r="I106" s="0"/>
     </row>
     <row outlineLevel="0" r="107">
       <c r="A107" s="0" t="inlineStr">
         <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B107" s="0">
@@ -3888,34 +3871,34 @@
       </c>
       <c r="C107" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D107" s="0" t="inlineStr">
         <is>
-          <t>2024/09/01 - 2024/11/01</t>
+          <t>2024/11/01 - 2024/11/15</t>
         </is>
       </c>
       <c r="E107" s="0">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F107" s="0">
-        <v>1098</v>
+        <v>0</v>
       </c>
       <c r="G107" s="0">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="H107" s="0">
-        <v>1220.00003231896</v>
+        <v>0</v>
       </c>
       <c r="I107" s="0">
-        <v>271.111118293103</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="108">
       <c r="A108" s="0" t="inlineStr">
         <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B108" s="0">
@@ -3923,34 +3906,32 @@
       </c>
       <c r="C108" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D108" s="0" t="inlineStr">
         <is>
-          <t>2024/11/01 - 2024/11/15</t>
+          <t>2024/09/01 - 2024/10/24</t>
         </is>
       </c>
       <c r="E108" s="0">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F108" s="0">
-        <v>252</v>
+        <v>10070</v>
       </c>
       <c r="G108" s="0">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="H108" s="0">
-        <v>280.000007417467</v>
-      </c>
-      <c r="I108" s="0">
-        <v>62.2222238705482</v>
-      </c>
+        <v>10070</v>
+      </c>
+      <c r="I108" s="0"/>
     </row>
     <row outlineLevel="0" r="109">
       <c r="A109" s="0" t="inlineStr">
         <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B109" s="0">
@@ -3958,53 +3939,564 @@
       </c>
       <c r="C109" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D109" s="0" t="inlineStr">
         <is>
-          <t>2024/09/01 - 2024/11/01</t>
+          <t>2024/10/24 - 2024/11/15</t>
         </is>
       </c>
       <c r="E109" s="0">
-        <v>61</v>
+        <v>22</v>
+      </c>
+      <c r="F109" s="0">
+        <v>4180</v>
       </c>
       <c r="G109" s="0">
+        <v>0</v>
+      </c>
+      <c r="H109" s="0">
+        <v>4180</v>
+      </c>
+      <c r="I109" s="0">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="110">
       <c r="A110" s="0" t="inlineStr">
         <is>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B110" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D110" s="0" t="inlineStr">
+        <is>
+          <t>2024/09/01 - 2024/10/24</t>
+        </is>
+      </c>
+      <c r="E110" s="0">
+        <v>53</v>
+      </c>
+      <c r="F110" s="0"/>
+      <c r="G110" s="0">
+        <v>0</v>
+      </c>
+      <c r="H110" s="0"/>
+      <c r="I110" s="0"/>
+    </row>
+    <row outlineLevel="0" r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B111" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D111" s="0" t="inlineStr">
+        <is>
+          <t>2024/10/24 - 2024/11/15</t>
+        </is>
+      </c>
+      <c r="E111" s="0">
+        <v>22</v>
+      </c>
+      <c r="F111" s="0">
+        <v>0</v>
+      </c>
+      <c r="G111" s="0">
+        <v>0</v>
+      </c>
+      <c r="H111" s="0">
+        <v>0</v>
+      </c>
+      <c r="I111" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B112" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="D112" s="0" t="inlineStr">
+        <is>
+          <t>2024/09/01 - 2024/10/24</t>
+        </is>
+      </c>
+      <c r="E112" s="0">
+        <v>53</v>
+      </c>
+      <c r="F112" s="0"/>
+      <c r="G112" s="0">
+        <v>0</v>
+      </c>
+      <c r="H112" s="0"/>
+      <c r="I112" s="0"/>
+    </row>
+    <row outlineLevel="0" r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B113" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="D113" s="0" t="inlineStr">
+        <is>
+          <t>2024/10/24 - 2024/11/15</t>
+        </is>
+      </c>
+      <c r="E113" s="0">
+        <v>22</v>
+      </c>
+      <c r="F113" s="0">
+        <v>0</v>
+      </c>
+      <c r="G113" s="0">
+        <v>0</v>
+      </c>
+      <c r="H113" s="0">
+        <v>0</v>
+      </c>
+      <c r="I113" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B114" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>2024/09/01 - 2024/10/24</t>
+        </is>
+      </c>
+      <c r="E114" s="0">
+        <v>53</v>
+      </c>
+      <c r="G114" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B115" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t>2024/10/24 - 2024/11/15</t>
+        </is>
+      </c>
+      <c r="E115" s="0">
+        <v>22</v>
+      </c>
+      <c r="F115" s="0">
+        <v>0</v>
+      </c>
+      <c r="G115" s="0">
+        <v>0</v>
+      </c>
+      <c r="H115" s="0">
+        <v>0</v>
+      </c>
+      <c r="I115" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
           <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
-      <c r="B110" s="0">
-        <v>2024</v>
-      </c>
-      <c r="C110" s="0" t="inlineStr">
+      <c r="B116" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="D116" s="0" t="inlineStr">
+        <is>
+          <t>2024/09/01 - 2024/10/24</t>
+        </is>
+      </c>
+      <c r="E116" s="0">
+        <v>53</v>
+      </c>
+      <c r="F116" s="0">
+        <v>11395</v>
+      </c>
+      <c r="G116" s="0">
+        <v>0</v>
+      </c>
+      <c r="H116" s="0">
+        <v>12661.111446516</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B117" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t>2024/10/24 - 2024/11/01</t>
+        </is>
+      </c>
+      <c r="E117" s="0">
+        <v>8</v>
+      </c>
+      <c r="F117" s="0">
+        <v>1828</v>
+      </c>
+      <c r="G117" s="0">
+        <v>0</v>
+      </c>
+      <c r="H117" s="0">
+        <v>2031.11116491718</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B118" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="D118" s="0" t="inlineStr">
+        <is>
+          <t>2024/11/01 - 2024/11/15</t>
+        </is>
+      </c>
+      <c r="E118" s="0">
+        <v>14</v>
+      </c>
+      <c r="F118" s="0">
+        <v>189</v>
+      </c>
+      <c r="G118" s="0">
+        <v>0</v>
+      </c>
+      <c r="H118" s="0">
+        <v>210.0000055631</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B119" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D119" s="0" t="inlineStr">
+        <is>
+          <t>2024/09/01 - 2024/10/24</t>
+        </is>
+      </c>
+      <c r="E119" s="0">
+        <v>53</v>
+      </c>
+      <c r="G119" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B120" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D120" s="0" t="inlineStr">
+        <is>
+          <t>2024/10/24 - 2024/11/01</t>
+        </is>
+      </c>
+      <c r="E120" s="0">
+        <v>8</v>
+      </c>
+      <c r="G120" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B121" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t>2024/11/01 - 2024/11/15</t>
+        </is>
+      </c>
+      <c r="E121" s="0">
+        <v>14</v>
+      </c>
+      <c r="G121" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B122" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t>2024/09/01 - 2024/10/24</t>
+        </is>
+      </c>
+      <c r="E122" s="0">
+        <v>53</v>
+      </c>
+      <c r="G122" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B123" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="D123" s="0" t="inlineStr">
+        <is>
+          <t>2024/10/24 - 2024/11/01</t>
+        </is>
+      </c>
+      <c r="E123" s="0">
+        <v>8</v>
+      </c>
+      <c r="F123" s="0">
+        <v>144</v>
+      </c>
+      <c r="G123" s="0">
+        <v>32</v>
+      </c>
+      <c r="H123" s="0">
+        <v>160.000004238553</v>
+      </c>
+      <c r="I123" s="0">
+        <v>35.5555564974561</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B124" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t>2024/11/01 - 2024/11/15</t>
+        </is>
+      </c>
+      <c r="E124" s="0">
+        <v>14</v>
+      </c>
+      <c r="F124" s="0">
+        <v>252</v>
+      </c>
+      <c r="G124" s="0">
+        <v>56</v>
+      </c>
+      <c r="H124" s="0">
+        <v>280.000007417467</v>
+      </c>
+      <c r="I124" s="0">
+        <v>62.2222238705482</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B125" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
         <is>
           <t>SK</t>
         </is>
       </c>
-      <c r="D110" s="0" t="inlineStr">
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t>2024/09/01 - 2024/10/24</t>
+        </is>
+      </c>
+      <c r="E125" s="0">
+        <v>53</v>
+      </c>
+      <c r="G125" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B126" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="D126" s="0" t="inlineStr">
+        <is>
+          <t>2024/10/24 - 2024/11/01</t>
+        </is>
+      </c>
+      <c r="E126" s="0">
+        <v>8</v>
+      </c>
+      <c r="G126" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B127" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="D127" s="0" t="inlineStr">
         <is>
           <t>2024/11/01 - 2024/11/15</t>
         </is>
       </c>
-      <c r="E110" s="0">
+      <c r="E127" s="0">
         <v>14</v>
       </c>
-      <c r="F110" s="0">
-        <v>0</v>
-      </c>
-      <c r="G110" s="0">
-        <v>0</v>
-      </c>
-      <c r="H110" s="0">
-        <v>0</v>
-      </c>
-      <c r="I110" s="0">
+      <c r="G127" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/escapement/prelim-inseason/EscEstAUCResults_area20-22_2024.xlsx
+++ b/data/escapement/prelim-inseason/EscEstAUCResults_area20-22_2024.xlsx
@@ -2350,20 +2350,20 @@
       </c>
       <c r="D59" s="0" t="inlineStr">
         <is>
-          <t>2024/11/13 - 2024/11/15</t>
+          <t>2024/11/13 - 2024/11/30</t>
         </is>
       </c>
       <c r="E59" s="0">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F59" s="0">
-        <v>59</v>
+        <v>501.5</v>
       </c>
       <c r="G59" s="0">
         <v>0</v>
       </c>
       <c r="H59" s="0">
-        <v>71.0000010041867</v>
+        <v>603.500008535587</v>
       </c>
       <c r="I59" s="0"/>
     </row>
@@ -2676,20 +2676,20 @@
       </c>
       <c r="D69" s="0" t="inlineStr">
         <is>
-          <t>2024/11/13 - 2024/11/15</t>
+          <t>2024/11/13 - 2024/11/30</t>
         </is>
       </c>
       <c r="E69" s="0">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F69" s="0">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G69" s="0">
         <v>0</v>
       </c>
       <c r="H69" s="0">
-        <v>4.99999992549419</v>
+        <v>42.4999993667007</v>
       </c>
       <c r="I69" s="0">
         <v>0</v>
@@ -3008,23 +3008,23 @@
       </c>
       <c r="D79" s="0" t="inlineStr">
         <is>
-          <t>2024/11/13 - 2024/11/15</t>
+          <t>2024/11/13 - 2024/12/31</t>
         </is>
       </c>
       <c r="E79" s="0">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="F79" s="0">
-        <v>626</v>
+        <v>15024</v>
       </c>
       <c r="G79" s="0">
-        <v>100</v>
+        <v>2400</v>
       </c>
       <c r="H79" s="0">
-        <v>626</v>
+        <v>15024</v>
       </c>
       <c r="I79" s="0">
-        <v>100</v>
+        <v>2400</v>
       </c>
     </row>
     <row outlineLevel="0" r="80">
@@ -3329,20 +3329,20 @@
       </c>
       <c r="D90" s="0" t="inlineStr">
         <is>
-          <t>2024/07/30 - 2024/07/31</t>
+          <t>2024/07/01 - 2024/07/31</t>
         </is>
       </c>
       <c r="E90" s="0">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F90" s="0">
-        <v>32.5</v>
+        <v>975</v>
       </c>
       <c r="G90" s="0">
         <v>0</v>
       </c>
       <c r="H90" s="0">
-        <v>44.1176454168005</v>
+        <v>1323.52936250401</v>
       </c>
       <c r="I90" s="0"/>
     </row>
@@ -3608,11 +3608,11 @@
       </c>
       <c r="D99" s="0" t="inlineStr">
         <is>
-          <t>2024/11/13 - 2024/11/15</t>
+          <t>2024/11/13 - 2024/11/14</t>
         </is>
       </c>
       <c r="E99" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" s="0"/>
       <c r="G99" s="0">

--- a/data/escapement/prelim-inseason/EscEstAUCResults_area20-22_2024.xlsx
+++ b/data/escapement/prelim-inseason/EscEstAUCResults_area20-22_2024.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="EscEstAUCResults"/>
   </sheets>
   <definedNames>
-    <definedName name="EscEstAUCResults">'EscEstAUCResults'!$A$1:$I$127</definedName>
+    <definedName name="EscEstAUCResults">'EscEstAUCResults'!$A$1:$I$114</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -875,12 +875,9 @@
       <c r="E15" s="0">
         <v>8</v>
       </c>
-      <c r="F15" s="0"/>
       <c r="G15" s="0">
         <v>0</v>
       </c>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -907,7 +904,6 @@
       <c r="G16" s="0">
         <v>0</v>
       </c>
-      <c r="I16" s="0"/>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -934,7 +930,6 @@
       <c r="G17" s="0">
         <v>0</v>
       </c>
-      <c r="I17" s="0"/>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -1028,11 +1023,9 @@
       <c r="E20" s="0">
         <v>15</v>
       </c>
-      <c r="F20" s="0"/>
       <c r="G20" s="0">
         <v>0</v>
       </c>
-      <c r="H20" s="0"/>
       <c r="I20" s="0">
         <v>0</v>
       </c>
@@ -1059,11 +1052,9 @@
       <c r="E21" s="0">
         <v>21</v>
       </c>
-      <c r="F21" s="0"/>
       <c r="G21" s="0">
         <v>0</v>
       </c>
-      <c r="H21" s="0"/>
       <c r="I21" s="0">
         <v>0</v>
       </c>
@@ -1510,12 +1501,9 @@
       <c r="E34" s="0">
         <v>36</v>
       </c>
-      <c r="F34" s="0"/>
       <c r="G34" s="0">
         <v>0</v>
       </c>
-      <c r="H34" s="0"/>
-      <c r="I34" s="0"/>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="0" t="inlineStr">
@@ -2003,7 +1991,6 @@
       <c r="H48" s="0">
         <v>0</v>
       </c>
-      <c r="I48" s="0"/>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="0" t="inlineStr">
@@ -2056,20 +2043,23 @@
       </c>
       <c r="D50" s="0" t="inlineStr">
         <is>
-          <t>2024/07/30 - 2024/07/31</t>
+          <t>2024/07/28 - 2024/09/04</t>
         </is>
       </c>
       <c r="E50" s="0">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F50" s="0">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G50" s="0">
         <v>0</v>
       </c>
       <c r="H50" s="0">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="I50" s="0">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="51">
@@ -2088,20 +2078,23 @@
       </c>
       <c r="D51" s="0" t="inlineStr">
         <is>
-          <t>2024/07/31 - 2024/09/04</t>
+          <t>2024/09/04 - 2024/09/20</t>
         </is>
       </c>
       <c r="E51" s="0">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F51" s="0">
-        <v>17.5</v>
+        <v>648</v>
       </c>
       <c r="G51" s="0">
         <v>0</v>
       </c>
       <c r="H51" s="0">
-        <v>17.5</v>
+        <v>852.631589646485</v>
+      </c>
+      <c r="I51" s="0">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="52">
@@ -2120,22 +2113,24 @@
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
-          <t>2024/09/04 - 2024/09/20</t>
+          <t>2024/09/20 - 2024/10/01</t>
         </is>
       </c>
       <c r="E52" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F52" s="0">
-        <v>648</v>
+        <v>76664.5</v>
       </c>
       <c r="G52" s="0">
         <v>0</v>
       </c>
       <c r="H52" s="0">
-        <v>703.999987566913</v>
-      </c>
-      <c r="I52" s="0"/>
+        <v>95859.9342178819</v>
+      </c>
+      <c r="I52" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="0" t="inlineStr">
@@ -2153,22 +2148,24 @@
       </c>
       <c r="D53" s="0" t="inlineStr">
         <is>
-          <t>2024/09/20 - 2024/10/01</t>
+          <t>2024/10/01 - 2024/10/11</t>
         </is>
       </c>
       <c r="E53" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F53" s="0">
-        <v>76664.5</v>
+        <v>328010</v>
       </c>
       <c r="G53" s="0">
         <v>0</v>
       </c>
       <c r="H53" s="0">
-        <v>90645.5009745091</v>
-      </c>
-      <c r="I53" s="0"/>
+        <v>410012.5</v>
+      </c>
+      <c r="I53" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="0" t="inlineStr">
@@ -2186,22 +2183,24 @@
       </c>
       <c r="D54" s="0" t="inlineStr">
         <is>
-          <t>2024/10/01 - 2024/10/11</t>
+          <t>2024/10/11 - 2024/10/23</t>
         </is>
       </c>
       <c r="E54" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F54" s="0">
-        <v>328010</v>
+        <v>905964</v>
       </c>
       <c r="G54" s="0">
         <v>0</v>
       </c>
       <c r="H54" s="0">
-        <v>397369.995179036</v>
-      </c>
-      <c r="I54" s="0"/>
+        <v>1049746.66666667</v>
+      </c>
+      <c r="I54" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="0" t="inlineStr">
@@ -2219,22 +2218,24 @@
       </c>
       <c r="D55" s="0" t="inlineStr">
         <is>
-          <t>2024/10/11 - 2024/10/23</t>
+          <t>2024/10/23 - 2024/11/07</t>
         </is>
       </c>
       <c r="E55" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F55" s="0">
-        <v>905964</v>
+        <v>748072.5</v>
       </c>
       <c r="G55" s="0">
         <v>0</v>
       </c>
       <c r="H55" s="0">
-        <v>973985.993142418</v>
-      </c>
-      <c r="I55" s="0"/>
+        <v>831191.666666667</v>
+      </c>
+      <c r="I55" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="0" t="inlineStr">
@@ -2252,20 +2253,23 @@
       </c>
       <c r="D56" s="0" t="inlineStr">
         <is>
-          <t>2024/10/23 - 2024/10/24</t>
+          <t>2024/11/07 - 2024/11/30</t>
         </is>
       </c>
       <c r="E56" s="0">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F56" s="0">
-        <v>113959.5</v>
+        <v>5669.5</v>
       </c>
       <c r="G56" s="0">
         <v>0</v>
       </c>
       <c r="H56" s="0">
-        <v>118290.498999047</v>
+        <v>6299.44444444444</v>
+      </c>
+      <c r="I56" s="0">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="57">
@@ -2279,27 +2283,29 @@
       </c>
       <c r="C57" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D57" s="0" t="inlineStr">
         <is>
-          <t>2024/10/24 - 2024/11/07</t>
+          <t>2024/08/15 - 2024/09/04</t>
         </is>
       </c>
       <c r="E57" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F57" s="0">
-        <v>904134</v>
+        <v>19550</v>
       </c>
       <c r="G57" s="0">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="H57" s="0">
-        <v>965810.986145304</v>
-      </c>
-      <c r="I57" s="0"/>
+        <v>22865.4976817522</v>
+      </c>
+      <c r="I57" s="0">
+        <v>269.005855079438</v>
+      </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="0" t="inlineStr">
@@ -2312,27 +2318,29 @@
       </c>
       <c r="C58" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D58" s="0" t="inlineStr">
         <is>
-          <t>2024/11/07 - 2024/11/13</t>
+          <t>2024/09/04 - 2024/09/20</t>
         </is>
       </c>
       <c r="E58" s="0">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F58" s="0">
-        <v>1656</v>
+        <v>73984</v>
       </c>
       <c r="G58" s="0">
-        <v>0</v>
+        <v>2544</v>
       </c>
       <c r="H58" s="0">
-        <v>2139.00007100683</v>
-      </c>
-      <c r="I58" s="0"/>
+        <v>90322.029683165</v>
+      </c>
+      <c r="I58" s="0">
+        <v>3128.78500816065</v>
+      </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="0" t="inlineStr">
@@ -2345,27 +2353,29 @@
       </c>
       <c r="C59" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D59" s="0" t="inlineStr">
         <is>
-          <t>2024/11/13 - 2024/11/30</t>
+          <t>2024/09/20 - 2024/10/01</t>
         </is>
       </c>
       <c r="E59" s="0">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F59" s="0">
-        <v>501.5</v>
+        <v>73942</v>
       </c>
       <c r="G59" s="0">
-        <v>0</v>
+        <v>1622.5</v>
       </c>
       <c r="H59" s="0">
-        <v>603.500008535587</v>
-      </c>
-      <c r="I59" s="0"/>
+        <v>97849.6573964979</v>
+      </c>
+      <c r="I59" s="0">
+        <v>2003.08647281676</v>
+      </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="0" t="inlineStr">
@@ -2383,18 +2393,24 @@
       </c>
       <c r="D60" s="0" t="inlineStr">
         <is>
-          <t>2024/07/30 - 2024/07/31</t>
+          <t>2024/10/01 - 2024/10/11</t>
         </is>
       </c>
       <c r="E60" s="0">
-        <v>1</v>
-      </c>
-      <c r="F60" s="0"/>
+        <v>10</v>
+      </c>
+      <c r="F60" s="0">
+        <v>46000</v>
+      </c>
       <c r="G60" s="0">
-        <v>0</v>
-      </c>
-      <c r="H60" s="0"/>
-      <c r="I60" s="0"/>
+        <v>5</v>
+      </c>
+      <c r="H60" s="0">
+        <v>64262.380952381</v>
+      </c>
+      <c r="I60" s="0">
+        <v>6.66666666666667</v>
+      </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="0" t="inlineStr">
@@ -2412,23 +2428,23 @@
       </c>
       <c r="D61" s="0" t="inlineStr">
         <is>
-          <t>2024/07/31 - 2024/09/04</t>
+          <t>2024/10/11 - 2024/10/24</t>
         </is>
       </c>
       <c r="E61" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F61" s="0">
-        <v>34212.5</v>
+        <v>20072</v>
       </c>
       <c r="G61" s="0">
-        <v>402.5</v>
+        <v>13</v>
       </c>
       <c r="H61" s="0">
-        <v>45602.941100001</v>
+        <v>27058.4166572231</v>
       </c>
       <c r="I61" s="0">
-        <v>536.505189411777</v>
+        <v>24.9166664245228</v>
       </c>
     </row>
     <row outlineLevel="0" r="62">
@@ -2447,23 +2463,23 @@
       </c>
       <c r="D62" s="0" t="inlineStr">
         <is>
-          <t>2024/09/04 - 2024/09/20</t>
+          <t>2024/10/24 - 2024/11/07</t>
         </is>
       </c>
       <c r="E62" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F62" s="0">
-        <v>73984</v>
+        <v>301</v>
       </c>
       <c r="G62" s="0">
-        <v>2544</v>
+        <v>7</v>
       </c>
       <c r="H62" s="0">
-        <v>85463.0591144079</v>
+        <v>717.499989829958</v>
       </c>
       <c r="I62" s="0">
-        <v>2858.96033733458</v>
+        <v>17.4999997392297</v>
       </c>
     </row>
     <row outlineLevel="0" r="63">
@@ -2482,22 +2498,24 @@
       </c>
       <c r="D63" s="0" t="inlineStr">
         <is>
-          <t>2024/09/20 - 2024/10/01</t>
+          <t>2024/11/07 - 2024/11/15</t>
         </is>
       </c>
       <c r="E63" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F63" s="0">
-        <v>73942</v>
+        <v>16</v>
       </c>
       <c r="G63" s="0">
-        <v>1622.5</v>
+        <v>0</v>
       </c>
       <c r="H63" s="0">
-        <v>84667.0001413389</v>
-      </c>
-      <c r="I63" s="0"/>
+        <v>20</v>
+      </c>
+      <c r="I63" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="0" t="inlineStr">
@@ -2510,27 +2528,29 @@
       </c>
       <c r="C64" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D64" s="0" t="inlineStr">
         <is>
-          <t>2024/10/01 - 2024/10/11</t>
+          <t>2024/08/15 - 2024/09/04</t>
         </is>
       </c>
       <c r="E64" s="0">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F64" s="0">
-        <v>46000</v>
+        <v>1200</v>
       </c>
       <c r="G64" s="0">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="H64" s="0">
-        <v>54275.0002132565</v>
-      </c>
-      <c r="I64" s="0"/>
+        <v>1240.00003695488</v>
+      </c>
+      <c r="I64" s="0">
+        <v>62.000001847744</v>
+      </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="0" t="inlineStr">
@@ -2543,23 +2563,29 @@
       </c>
       <c r="C65" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D65" s="0" t="inlineStr">
         <is>
-          <t>2024/10/11 - 2024/10/23</t>
+          <t>2024/09/04 - 2024/09/20</t>
         </is>
       </c>
       <c r="E65" s="0">
-        <v>12</v>
-      </c>
-      <c r="F65" s="0"/>
+        <v>16</v>
+      </c>
+      <c r="F65" s="0">
+        <v>1016</v>
+      </c>
       <c r="G65" s="0">
-        <v>6</v>
-      </c>
-      <c r="H65" s="0"/>
-      <c r="I65" s="0"/>
+        <v>48</v>
+      </c>
+      <c r="H65" s="0">
+        <v>1048.0000295639</v>
+      </c>
+      <c r="I65" s="0">
+        <v>49.6000014781952</v>
+      </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="0" t="inlineStr">
@@ -2572,23 +2598,29 @@
       </c>
       <c r="C66" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D66" s="0" t="inlineStr">
         <is>
-          <t>2024/10/23 - 2024/10/24</t>
+          <t>2024/09/20 - 2024/10/01</t>
         </is>
       </c>
       <c r="E66" s="0">
-        <v>1</v>
-      </c>
-      <c r="F66" s="0"/>
+        <v>11</v>
+      </c>
+      <c r="F66" s="0">
+        <v>1111</v>
+      </c>
       <c r="G66" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="H66" s="0"/>
-      <c r="I66" s="0"/>
+        <v>110</v>
+      </c>
+      <c r="H66" s="0">
+        <v>1314.50002808204</v>
+      </c>
+      <c r="I66" s="0">
+        <v>130.871797752004</v>
+      </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="0" t="inlineStr">
@@ -2601,28 +2633,28 @@
       </c>
       <c r="C67" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D67" s="0" t="inlineStr">
         <is>
-          <t>2024/10/24 - 2024/11/07</t>
+          <t>2024/10/01 - 2024/10/11</t>
         </is>
       </c>
       <c r="E67" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F67" s="0">
-        <v>301</v>
+        <v>8445</v>
       </c>
       <c r="G67" s="0">
-        <v>7</v>
+        <v>965</v>
       </c>
       <c r="H67" s="0">
-        <v>357.000008336627</v>
+        <v>9819.99990114932</v>
       </c>
       <c r="I67" s="0">
-        <v>8.25641048354275</v>
+        <v>1121.77220528904</v>
       </c>
     </row>
     <row outlineLevel="0" r="68">
@@ -2636,28 +2668,28 @@
       </c>
       <c r="C68" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D68" s="0" t="inlineStr">
         <is>
-          <t>2024/11/07 - 2024/11/13</t>
+          <t>2024/10/11 - 2024/10/24</t>
         </is>
       </c>
       <c r="E68" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F68" s="0">
-        <v>24</v>
+        <v>9847.5</v>
       </c>
       <c r="G68" s="0">
-        <v>0</v>
+        <v>1150.5</v>
       </c>
       <c r="H68" s="0">
-        <v>29.9999995529652</v>
+        <v>11556.999831517</v>
       </c>
       <c r="I68" s="0">
-        <v>0</v>
+        <v>1360.5895764644</v>
       </c>
     </row>
     <row outlineLevel="0" r="69">
@@ -2671,28 +2703,28 @@
       </c>
       <c r="C69" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D69" s="0" t="inlineStr">
         <is>
-          <t>2024/11/13 - 2024/11/30</t>
+          <t>2024/10/24 - 2024/11/07</t>
         </is>
       </c>
       <c r="E69" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F69" s="0">
-        <v>34</v>
+        <v>9261</v>
       </c>
       <c r="G69" s="0">
-        <v>0</v>
+        <v>1064</v>
       </c>
       <c r="H69" s="0">
-        <v>42.4999993667007</v>
+        <v>12813.1114964592</v>
       </c>
       <c r="I69" s="0">
-        <v>0</v>
+        <v>1481.21390226176</v>
       </c>
     </row>
     <row outlineLevel="0" r="70">
@@ -2711,18 +2743,24 @@
       </c>
       <c r="D70" s="0" t="inlineStr">
         <is>
-          <t>2024/07/30 - 2024/07/31</t>
+          <t>2024/11/07 - 2024/12/31</t>
         </is>
       </c>
       <c r="E70" s="0">
-        <v>1</v>
-      </c>
-      <c r="F70" s="0"/>
+        <v>54</v>
+      </c>
+      <c r="F70" s="0">
+        <v>35154</v>
+      </c>
       <c r="G70" s="0">
-        <v>0</v>
-      </c>
-      <c r="H70" s="0"/>
-      <c r="I70" s="0"/>
+        <v>3996</v>
+      </c>
+      <c r="H70" s="0">
+        <v>48180.001514544</v>
+      </c>
+      <c r="I70" s="0">
+        <v>5476.68219980992</v>
+      </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="0" t="inlineStr">
@@ -2735,28 +2773,19 @@
       </c>
       <c r="C71" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D71" s="0" t="inlineStr">
         <is>
-          <t>2024/07/31 - 2024/09/04</t>
+          <t>2024/07/30 - 2024/07/31</t>
         </is>
       </c>
       <c r="E71" s="0">
-        <v>35</v>
-      </c>
-      <c r="F71" s="0">
-        <v>2100</v>
+        <v>1</v>
       </c>
       <c r="G71" s="0">
-        <v>105</v>
-      </c>
-      <c r="H71" s="0">
-        <v>2170.00006467104</v>
-      </c>
-      <c r="I71" s="0">
-        <v>108.500003233552</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="72">
@@ -2770,28 +2799,25 @@
       </c>
       <c r="C72" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D72" s="0" t="inlineStr">
         <is>
-          <t>2024/09/04 - 2024/09/20</t>
+          <t>2024/07/31 - 2024/09/04</t>
         </is>
       </c>
       <c r="E72" s="0">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F72" s="0">
-        <v>1016</v>
+        <v>0</v>
       </c>
       <c r="G72" s="0">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H72" s="0">
-        <v>1048.0000295639</v>
-      </c>
-      <c r="I72" s="0">
-        <v>49.6000014781952</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="73">
@@ -2805,28 +2831,19 @@
       </c>
       <c r="C73" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D73" s="0" t="inlineStr">
         <is>
-          <t>2024/09/20 - 2024/10/01</t>
+          <t>2024/09/04 - 2024/09/20</t>
         </is>
       </c>
       <c r="E73" s="0">
-        <v>11</v>
-      </c>
-      <c r="F73" s="0">
-        <v>1111</v>
+        <v>16</v>
       </c>
       <c r="G73" s="0">
-        <v>110</v>
-      </c>
-      <c r="H73" s="0">
-        <v>1314.50002808204</v>
-      </c>
-      <c r="I73" s="0">
-        <v>130.871797752004</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="74">
@@ -2840,28 +2857,19 @@
       </c>
       <c r="C74" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D74" s="0" t="inlineStr">
         <is>
-          <t>2024/10/01 - 2024/10/11</t>
+          <t>2024/09/20 - 2024/10/01</t>
         </is>
       </c>
       <c r="E74" s="0">
-        <v>10</v>
-      </c>
-      <c r="F74" s="0">
-        <v>8445</v>
+        <v>11</v>
       </c>
       <c r="G74" s="0">
-        <v>965</v>
-      </c>
-      <c r="H74" s="0">
-        <v>9819.99990114932</v>
-      </c>
-      <c r="I74" s="0">
-        <v>1121.77220528904</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="75">
@@ -2875,23 +2883,26 @@
       </c>
       <c r="C75" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D75" s="0" t="inlineStr">
         <is>
-          <t>2024/10/11 - 2024/10/23</t>
+          <t>2024/10/01 - 2024/10/11</t>
         </is>
       </c>
       <c r="E75" s="0">
-        <v>12</v>
-      </c>
-      <c r="F75" s="0"/>
+        <v>10</v>
+      </c>
+      <c r="F75" s="0">
+        <v>0</v>
+      </c>
       <c r="G75" s="0">
-        <v>1038</v>
-      </c>
-      <c r="H75" s="0"/>
-      <c r="I75" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="0" t="inlineStr">
@@ -2904,23 +2915,26 @@
       </c>
       <c r="C76" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D76" s="0" t="inlineStr">
         <is>
-          <t>2024/10/23 - 2024/10/24</t>
+          <t>2024/10/11 - 2024/10/24</t>
         </is>
       </c>
       <c r="E76" s="0">
-        <v>1</v>
-      </c>
-      <c r="F76" s="0"/>
+        <v>13</v>
+      </c>
+      <c r="F76" s="0">
+        <v>0</v>
+      </c>
       <c r="G76" s="0">
-        <v>2</v>
-      </c>
-      <c r="H76" s="0"/>
-      <c r="I76" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="0" t="inlineStr">
@@ -2933,7 +2947,7 @@
       </c>
       <c r="C77" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D77" s="0" t="inlineStr">
@@ -2945,16 +2959,13 @@
         <v>14</v>
       </c>
       <c r="F77" s="0">
-        <v>9261</v>
+        <v>0</v>
       </c>
       <c r="G77" s="0">
-        <v>1064</v>
+        <v>0</v>
       </c>
       <c r="H77" s="0">
-        <v>11403.0000519265</v>
-      </c>
-      <c r="I77" s="0">
-        <v>1308.55914540672</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="78">
@@ -2968,28 +2979,25 @@
       </c>
       <c r="C78" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D78" s="0" t="inlineStr">
         <is>
-          <t>2024/11/07 - 2024/11/13</t>
+          <t>2024/11/07 - 2024/11/15</t>
         </is>
       </c>
       <c r="E78" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F78" s="0">
-        <v>5784</v>
+        <v>0</v>
       </c>
       <c r="G78" s="0">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="H78" s="0">
-        <v>6696.00002382098</v>
-      </c>
-      <c r="I78" s="0">
-        <v>847.668205472738</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="79">
@@ -3003,28 +3011,25 @@
       </c>
       <c r="C79" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D79" s="0" t="inlineStr">
         <is>
-          <t>2024/11/13 - 2024/12/31</t>
+          <t>2024/07/01 - 2024/07/31</t>
         </is>
       </c>
       <c r="E79" s="0">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F79" s="0">
-        <v>15024</v>
+        <v>975</v>
       </c>
       <c r="G79" s="0">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="H79" s="0">
-        <v>15024</v>
-      </c>
-      <c r="I79" s="0">
-        <v>2400</v>
+        <v>1323.52936250401</v>
       </c>
     </row>
     <row outlineLevel="0" r="80">
@@ -3038,19 +3043,25 @@
       </c>
       <c r="C80" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D80" s="0" t="inlineStr">
         <is>
-          <t>2024/07/30 - 2024/07/31</t>
+          <t>2024/07/31 - 2024/09/04</t>
         </is>
       </c>
       <c r="E80" s="0">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="F80" s="0">
+        <v>5162.5</v>
       </c>
       <c r="G80" s="0">
         <v>0</v>
+      </c>
+      <c r="H80" s="0">
+        <v>6464.70568431301</v>
       </c>
     </row>
     <row outlineLevel="0" r="81">
@@ -3064,25 +3075,25 @@
       </c>
       <c r="C81" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D81" s="0" t="inlineStr">
         <is>
-          <t>2024/07/31 - 2024/09/04</t>
+          <t>2024/09/04 - 2024/09/20</t>
         </is>
       </c>
       <c r="E81" s="0">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F81" s="0">
-        <v>0</v>
+        <v>3080</v>
       </c>
       <c r="G81" s="0">
         <v>0</v>
       </c>
       <c r="H81" s="0">
-        <v>0</v>
+        <v>3783.52933869015</v>
       </c>
     </row>
     <row outlineLevel="0" r="82">
@@ -3096,19 +3107,25 @@
       </c>
       <c r="C82" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D82" s="0" t="inlineStr">
         <is>
-          <t>2024/09/04 - 2024/09/20</t>
+          <t>2024/09/20 - 2024/10/01</t>
         </is>
       </c>
       <c r="E82" s="0">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="F82" s="0">
+        <v>1083.5</v>
       </c>
       <c r="G82" s="0">
         <v>0</v>
+      </c>
+      <c r="H82" s="0">
+        <v>1537.48364288024</v>
       </c>
     </row>
     <row outlineLevel="0" r="83">
@@ -3122,23 +3139,26 @@
       </c>
       <c r="C83" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D83" s="0" t="inlineStr">
         <is>
-          <t>2024/09/20 - 2024/10/01</t>
+          <t>2024/10/01 - 2024/10/11</t>
         </is>
       </c>
       <c r="E83" s="0">
-        <v>11</v>
-      </c>
-      <c r="F83" s="0"/>
+        <v>10</v>
+      </c>
+      <c r="F83" s="0">
+        <v>530</v>
+      </c>
       <c r="G83" s="0">
-        <v>0</v>
-      </c>
-      <c r="H83" s="0"/>
-      <c r="I83" s="0"/>
+        <v>5</v>
+      </c>
+      <c r="H83" s="0">
+        <v>855.555546330864</v>
+      </c>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="0" t="inlineStr">
@@ -3151,23 +3171,26 @@
       </c>
       <c r="C84" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D84" s="0" t="inlineStr">
         <is>
-          <t>2024/10/01 - 2024/10/11</t>
+          <t>2024/10/11 - 2024/10/24</t>
         </is>
       </c>
       <c r="E84" s="0">
-        <v>10</v>
-      </c>
-      <c r="F84" s="0"/>
+        <v>13</v>
+      </c>
+      <c r="F84" s="0">
+        <v>429</v>
+      </c>
       <c r="G84" s="0">
-        <v>0</v>
-      </c>
-      <c r="H84" s="0"/>
-      <c r="I84" s="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="H84" s="0">
+        <v>567.666667899807</v>
+      </c>
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="0" t="inlineStr">
@@ -3180,23 +3203,26 @@
       </c>
       <c r="C85" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D85" s="0" t="inlineStr">
         <is>
-          <t>2024/10/11 - 2024/10/23</t>
+          <t>2024/10/24 - 2024/11/07</t>
         </is>
       </c>
       <c r="E85" s="0">
-        <v>12</v>
-      </c>
-      <c r="F85" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="F85" s="0">
+        <v>14</v>
+      </c>
       <c r="G85" s="0">
         <v>0</v>
       </c>
-      <c r="H85" s="0"/>
-      <c r="I85" s="0"/>
+      <c r="H85" s="0">
+        <v>28</v>
+      </c>
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="0" t="inlineStr">
@@ -3209,28 +3235,31 @@
       </c>
       <c r="C86" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D86" s="0" t="inlineStr">
         <is>
-          <t>2024/10/23 - 2024/10/24</t>
+          <t>2024/11/07 - 2024/11/10</t>
         </is>
       </c>
       <c r="E86" s="0">
-        <v>1</v>
-      </c>
-      <c r="F86" s="0"/>
+        <v>3</v>
+      </c>
+      <c r="F86" s="0">
+        <v>0</v>
+      </c>
       <c r="G86" s="0">
         <v>0</v>
       </c>
-      <c r="H86" s="0"/>
-      <c r="I86" s="0"/>
+      <c r="H86" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B87" s="0">
@@ -3238,28 +3267,34 @@
       </c>
       <c r="C87" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D87" s="0" t="inlineStr">
         <is>
-          <t>2024/10/24 - 2024/11/07</t>
+          <t>2024/09/01 - 2024/11/01</t>
         </is>
       </c>
       <c r="E87" s="0">
-        <v>14</v>
-      </c>
-      <c r="F87" s="0"/>
+        <v>61</v>
+      </c>
+      <c r="F87" s="0">
+        <v>44255.5</v>
+      </c>
       <c r="G87" s="0">
         <v>0</v>
       </c>
-      <c r="H87" s="0"/>
-      <c r="I87" s="0"/>
+      <c r="H87" s="0">
+        <v>51760.819362963</v>
+      </c>
+      <c r="I87" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B88" s="0">
@@ -3267,28 +3302,34 @@
       </c>
       <c r="C88" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D88" s="0" t="inlineStr">
         <is>
-          <t>2024/11/07 - 2024/11/13</t>
+          <t>2024/11/01 - 2024/11/15</t>
         </is>
       </c>
       <c r="E88" s="0">
-        <v>6</v>
-      </c>
-      <c r="F88" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="F88" s="0">
+        <v>10157</v>
+      </c>
       <c r="G88" s="0">
         <v>0</v>
       </c>
-      <c r="H88" s="0"/>
-      <c r="I88" s="0"/>
+      <c r="H88" s="0">
+        <v>11879.5323128112</v>
+      </c>
+      <c r="I88" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B89" s="0">
@@ -3296,27 +3337,34 @@
       </c>
       <c r="C89" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D89" s="0" t="inlineStr">
         <is>
-          <t>2024/11/13 - 2024/11/15</t>
+          <t>2024/09/01 - 2024/11/01</t>
         </is>
       </c>
       <c r="E89" s="0">
-        <v>2</v>
-      </c>
-      <c r="F89" s="0"/>
+        <v>61</v>
+      </c>
+      <c r="F89" s="0">
+        <v>30.5</v>
+      </c>
       <c r="G89" s="0">
         <v>0</v>
       </c>
-      <c r="H89" s="0"/>
+      <c r="H89" s="0">
+        <v>63.5416641417478</v>
+      </c>
+      <c r="I89" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B90" s="0">
@@ -3324,32 +3372,34 @@
       </c>
       <c r="C90" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D90" s="0" t="inlineStr">
         <is>
-          <t>2024/07/01 - 2024/07/31</t>
+          <t>2024/11/01 - 2024/11/15</t>
         </is>
       </c>
       <c r="E90" s="0">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F90" s="0">
-        <v>975</v>
+        <v>7</v>
       </c>
       <c r="G90" s="0">
         <v>0</v>
       </c>
       <c r="H90" s="0">
-        <v>1323.52936250401</v>
-      </c>
-      <c r="I90" s="0"/>
+        <v>14.5833327538438</v>
+      </c>
+      <c r="I90" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B91" s="0">
@@ -3357,31 +3407,34 @@
       </c>
       <c r="C91" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D91" s="0" t="inlineStr">
         <is>
-          <t>2024/07/31 - 2024/09/04</t>
+          <t>2024/09/01 - 2024/11/01</t>
         </is>
       </c>
       <c r="E91" s="0">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F91" s="0">
-        <v>5162.5</v>
+        <v>854</v>
       </c>
       <c r="G91" s="0">
-        <v>0</v>
+        <v>152.5</v>
       </c>
       <c r="H91" s="0">
-        <v>5726.61758742022</v>
+        <v>1067.49998409301</v>
+      </c>
+      <c r="I91" s="0">
+        <v>190.624997159466</v>
       </c>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B92" s="0">
@@ -3389,32 +3442,34 @@
       </c>
       <c r="C92" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D92" s="0" t="inlineStr">
         <is>
-          <t>2024/09/04 - 2024/09/20</t>
+          <t>2024/11/01 - 2024/11/15</t>
         </is>
       </c>
       <c r="E92" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F92" s="0">
-        <v>3080</v>
+        <v>196</v>
       </c>
       <c r="G92" s="0">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H92" s="0">
-        <v>3216.000028093</v>
-      </c>
-      <c r="I92" s="0"/>
+        <v>244.999996349216</v>
+      </c>
+      <c r="I92" s="0">
+        <v>43.7499993480742</v>
+      </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B93" s="0">
@@ -3427,26 +3482,20 @@
       </c>
       <c r="D93" s="0" t="inlineStr">
         <is>
-          <t>2024/09/20 - 2024/10/01</t>
+          <t>2024/09/01 - 2024/11/01</t>
         </is>
       </c>
       <c r="E93" s="0">
-        <v>11</v>
-      </c>
-      <c r="F93" s="0">
-        <v>1083.5</v>
+        <v>61</v>
       </c>
       <c r="G93" s="0">
         <v>0</v>
-      </c>
-      <c r="H93" s="0">
-        <v>1330.9999984134</v>
       </c>
     </row>
     <row outlineLevel="0" r="94">
       <c r="A94" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B94" s="0">
@@ -3459,27 +3508,29 @@
       </c>
       <c r="D94" s="0" t="inlineStr">
         <is>
-          <t>2024/10/01 - 2024/10/11</t>
+          <t>2024/11/01 - 2024/11/15</t>
         </is>
       </c>
       <c r="E94" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F94" s="0">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="G94" s="0">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H94" s="0">
-        <v>769.999971299744</v>
-      </c>
-      <c r="I94" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B95" s="0">
@@ -3487,28 +3538,31 @@
       </c>
       <c r="C95" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D95" s="0" t="inlineStr">
         <is>
-          <t>2024/10/11 - 2024/10/23</t>
+          <t>2024/09/01 - 2024/10/24</t>
         </is>
       </c>
       <c r="E95" s="0">
-        <v>12</v>
-      </c>
-      <c r="F95" s="0"/>
+        <v>53</v>
+      </c>
+      <c r="F95" s="0">
+        <v>10070</v>
+      </c>
       <c r="G95" s="0">
-        <v>6</v>
-      </c>
-      <c r="H95" s="0"/>
-      <c r="I95" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="H95" s="0">
+        <v>10070</v>
+      </c>
     </row>
     <row outlineLevel="0" r="96">
       <c r="A96" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B96" s="0">
@@ -3516,28 +3570,34 @@
       </c>
       <c r="C96" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D96" s="0" t="inlineStr">
         <is>
-          <t>2024/10/23 - 2024/10/24</t>
+          <t>2024/10/24 - 2024/11/15</t>
         </is>
       </c>
       <c r="E96" s="0">
-        <v>1</v>
-      </c>
-      <c r="F96" s="0"/>
+        <v>22</v>
+      </c>
+      <c r="F96" s="0">
+        <v>4180</v>
+      </c>
       <c r="G96" s="0">
         <v>0</v>
       </c>
-      <c r="H96" s="0"/>
-      <c r="I96" s="0"/>
+      <c r="H96" s="0">
+        <v>4180</v>
+      </c>
+      <c r="I96" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="97">
       <c r="A97" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B97" s="0">
@@ -3545,28 +3605,25 @@
       </c>
       <c r="C97" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D97" s="0" t="inlineStr">
         <is>
-          <t>2024/10/24 - 2024/11/07</t>
+          <t>2024/09/01 - 2024/10/24</t>
         </is>
       </c>
       <c r="E97" s="0">
-        <v>14</v>
-      </c>
-      <c r="F97" s="0"/>
+        <v>53</v>
+      </c>
       <c r="G97" s="0">
         <v>0</v>
       </c>
-      <c r="H97" s="0"/>
-      <c r="I97" s="0"/>
     </row>
     <row outlineLevel="0" r="98">
       <c r="A98" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B98" s="0">
@@ -3574,28 +3631,34 @@
       </c>
       <c r="C98" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D98" s="0" t="inlineStr">
         <is>
-          <t>2024/11/07 - 2024/11/13</t>
+          <t>2024/10/24 - 2024/11/15</t>
         </is>
       </c>
       <c r="E98" s="0">
-        <v>6</v>
-      </c>
-      <c r="F98" s="0"/>
+        <v>22</v>
+      </c>
+      <c r="F98" s="0">
+        <v>0</v>
+      </c>
       <c r="G98" s="0">
         <v>0</v>
       </c>
-      <c r="H98" s="0"/>
-      <c r="I98" s="0"/>
+      <c r="H98" s="0">
+        <v>0</v>
+      </c>
+      <c r="I98" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="99">
       <c r="A99" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B99" s="0">
@@ -3603,28 +3666,25 @@
       </c>
       <c r="C99" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D99" s="0" t="inlineStr">
         <is>
-          <t>2024/11/13 - 2024/11/14</t>
+          <t>2024/09/01 - 2024/10/24</t>
         </is>
       </c>
       <c r="E99" s="0">
-        <v>1</v>
-      </c>
-      <c r="F99" s="0"/>
+        <v>53</v>
+      </c>
       <c r="G99" s="0">
         <v>0</v>
       </c>
-      <c r="H99" s="0"/>
-      <c r="I99" s="0"/>
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="0" t="inlineStr">
         <is>
-          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B100" s="0">
@@ -3632,25 +3692,25 @@
       </c>
       <c r="C100" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D100" s="0" t="inlineStr">
         <is>
-          <t>2024/09/01 - 2024/11/01</t>
+          <t>2024/10/24 - 2024/11/15</t>
         </is>
       </c>
       <c r="E100" s="0">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F100" s="0">
-        <v>44255.5</v>
+        <v>0</v>
       </c>
       <c r="G100" s="0">
         <v>0</v>
       </c>
       <c r="H100" s="0">
-        <v>51760.819362963</v>
+        <v>0</v>
       </c>
       <c r="I100" s="0">
         <v>0</v>
@@ -3659,7 +3719,7 @@
     <row outlineLevel="0" r="101">
       <c r="A101" s="0" t="inlineStr">
         <is>
-          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B101" s="0">
@@ -3667,34 +3727,25 @@
       </c>
       <c r="C101" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D101" s="0" t="inlineStr">
         <is>
-          <t>2024/11/01 - 2024/11/15</t>
+          <t>2024/09/01 - 2024/10/24</t>
         </is>
       </c>
       <c r="E101" s="0">
-        <v>14</v>
-      </c>
-      <c r="F101" s="0">
-        <v>10157</v>
+        <v>53</v>
       </c>
       <c r="G101" s="0">
-        <v>0</v>
-      </c>
-      <c r="H101" s="0">
-        <v>11879.5323128112</v>
-      </c>
-      <c r="I101" s="0">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="102">
       <c r="A102" s="0" t="inlineStr">
         <is>
-          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B102" s="0">
@@ -3702,25 +3753,25 @@
       </c>
       <c r="C102" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D102" s="0" t="inlineStr">
         <is>
-          <t>2024/09/01 - 2024/11/01</t>
+          <t>2024/10/24 - 2024/11/15</t>
         </is>
       </c>
       <c r="E102" s="0">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F102" s="0">
-        <v>30.5</v>
+        <v>0</v>
       </c>
       <c r="G102" s="0">
         <v>0</v>
       </c>
       <c r="H102" s="0">
-        <v>112.962958474218</v>
+        <v>0</v>
       </c>
       <c r="I102" s="0">
         <v>0</v>
@@ -3729,7 +3780,7 @@
     <row outlineLevel="0" r="103">
       <c r="A103" s="0" t="inlineStr">
         <is>
-          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B103" s="0">
@@ -3737,34 +3788,31 @@
       </c>
       <c r="C103" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D103" s="0" t="inlineStr">
         <is>
-          <t>2024/11/01 - 2024/11/15</t>
+          <t>2024/09/01 - 2024/10/24</t>
         </is>
       </c>
       <c r="E103" s="0">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F103" s="0">
-        <v>7</v>
+        <v>11395</v>
       </c>
       <c r="G103" s="0">
         <v>0</v>
       </c>
       <c r="H103" s="0">
-        <v>25.9259248957222</v>
-      </c>
-      <c r="I103" s="0">
-        <v>0</v>
+        <v>12661.111446516</v>
       </c>
     </row>
     <row outlineLevel="0" r="104">
       <c r="A104" s="0" t="inlineStr">
         <is>
-          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B104" s="0">
@@ -3772,34 +3820,31 @@
       </c>
       <c r="C104" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D104" s="0" t="inlineStr">
         <is>
-          <t>2024/09/01 - 2024/11/01</t>
+          <t>2024/10/24 - 2024/11/01</t>
         </is>
       </c>
       <c r="E104" s="0">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="F104" s="0">
-        <v>854</v>
+        <v>1828</v>
       </c>
       <c r="G104" s="0">
-        <v>152.5</v>
+        <v>0</v>
       </c>
       <c r="H104" s="0">
-        <v>1067.49998409301</v>
-      </c>
-      <c r="I104" s="0">
-        <v>190.624997159466</v>
+        <v>2031.11116491718</v>
       </c>
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="0" t="inlineStr">
         <is>
-          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B105" s="0">
@@ -3807,7 +3852,7 @@
       </c>
       <c r="C105" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D105" s="0" t="inlineStr">
@@ -3819,22 +3864,19 @@
         <v>14</v>
       </c>
       <c r="F105" s="0">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G105" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H105" s="0">
-        <v>244.999996349216</v>
-      </c>
-      <c r="I105" s="0">
-        <v>43.7499993480742</v>
+        <v>210.0000055631</v>
       </c>
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="0" t="inlineStr">
         <is>
-          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B106" s="0">
@@ -3842,28 +3884,25 @@
       </c>
       <c r="C106" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D106" s="0" t="inlineStr">
         <is>
-          <t>2024/09/01 - 2024/11/01</t>
+          <t>2024/09/01 - 2024/10/24</t>
         </is>
       </c>
       <c r="E106" s="0">
-        <v>61</v>
-      </c>
-      <c r="F106" s="0"/>
+        <v>53</v>
+      </c>
       <c r="G106" s="0">
         <v>0</v>
       </c>
-      <c r="H106" s="0"/>
-      <c r="I106" s="0"/>
     </row>
     <row outlineLevel="0" r="107">
       <c r="A107" s="0" t="inlineStr">
         <is>
-          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B107" s="0">
@@ -3871,34 +3910,25 @@
       </c>
       <c r="C107" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D107" s="0" t="inlineStr">
         <is>
-          <t>2024/11/01 - 2024/11/15</t>
+          <t>2024/10/24 - 2024/11/01</t>
         </is>
       </c>
       <c r="E107" s="0">
-        <v>14</v>
-      </c>
-      <c r="F107" s="0">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G107" s="0">
-        <v>0</v>
-      </c>
-      <c r="H107" s="0">
-        <v>0</v>
-      </c>
-      <c r="I107" s="0">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="108">
       <c r="A108" s="0" t="inlineStr">
         <is>
-          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B108" s="0">
@@ -3906,32 +3936,25 @@
       </c>
       <c r="C108" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D108" s="0" t="inlineStr">
         <is>
-          <t>2024/09/01 - 2024/10/24</t>
+          <t>2024/11/01 - 2024/11/15</t>
         </is>
       </c>
       <c r="E108" s="0">
-        <v>53</v>
-      </c>
-      <c r="F108" s="0">
-        <v>10070</v>
+        <v>14</v>
       </c>
       <c r="G108" s="0">
         <v>0</v>
       </c>
-      <c r="H108" s="0">
-        <v>10070</v>
-      </c>
-      <c r="I108" s="0"/>
     </row>
     <row outlineLevel="0" r="109">
       <c r="A109" s="0" t="inlineStr">
         <is>
-          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B109" s="0">
@@ -3939,34 +3962,25 @@
       </c>
       <c r="C109" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D109" s="0" t="inlineStr">
         <is>
-          <t>2024/10/24 - 2024/11/15</t>
+          <t>2024/09/01 - 2024/10/24</t>
         </is>
       </c>
       <c r="E109" s="0">
-        <v>22</v>
-      </c>
-      <c r="F109" s="0">
-        <v>4180</v>
+        <v>53</v>
       </c>
       <c r="G109" s="0">
-        <v>0</v>
-      </c>
-      <c r="H109" s="0">
-        <v>4180</v>
-      </c>
-      <c r="I109" s="0">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="110">
       <c r="A110" s="0" t="inlineStr">
         <is>
-          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B110" s="0">
@@ -3974,28 +3988,34 @@
       </c>
       <c r="C110" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D110" s="0" t="inlineStr">
         <is>
-          <t>2024/09/01 - 2024/10/24</t>
+          <t>2024/10/24 - 2024/11/01</t>
         </is>
       </c>
       <c r="E110" s="0">
-        <v>53</v>
-      </c>
-      <c r="F110" s="0"/>
+        <v>8</v>
+      </c>
+      <c r="F110" s="0">
+        <v>144</v>
+      </c>
       <c r="G110" s="0">
-        <v>0</v>
-      </c>
-      <c r="H110" s="0"/>
-      <c r="I110" s="0"/>
+        <v>32</v>
+      </c>
+      <c r="H110" s="0">
+        <v>160.000004238553</v>
+      </c>
+      <c r="I110" s="0">
+        <v>35.5555564974561</v>
+      </c>
     </row>
     <row outlineLevel="0" r="111">
       <c r="A111" s="0" t="inlineStr">
         <is>
-          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B111" s="0">
@@ -4003,34 +4023,34 @@
       </c>
       <c r="C111" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D111" s="0" t="inlineStr">
         <is>
-          <t>2024/10/24 - 2024/11/15</t>
+          <t>2024/11/01 - 2024/11/15</t>
         </is>
       </c>
       <c r="E111" s="0">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F111" s="0">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="G111" s="0">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H111" s="0">
-        <v>0</v>
+        <v>280.000007417467</v>
       </c>
       <c r="I111" s="0">
-        <v>0</v>
+        <v>62.2222238705482</v>
       </c>
     </row>
     <row outlineLevel="0" r="112">
       <c r="A112" s="0" t="inlineStr">
         <is>
-          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B112" s="0">
@@ -4038,7 +4058,7 @@
       </c>
       <c r="C112" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D112" s="0" t="inlineStr">
@@ -4049,17 +4069,14 @@
       <c r="E112" s="0">
         <v>53</v>
       </c>
-      <c r="F112" s="0"/>
       <c r="G112" s="0">
         <v>0</v>
       </c>
-      <c r="H112" s="0"/>
-      <c r="I112" s="0"/>
     </row>
     <row outlineLevel="0" r="113">
       <c r="A113" s="0" t="inlineStr">
         <is>
-          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B113" s="0">
@@ -4067,34 +4084,25 @@
       </c>
       <c r="C113" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D113" s="0" t="inlineStr">
         <is>
-          <t>2024/10/24 - 2024/11/15</t>
+          <t>2024/10/24 - 2024/11/01</t>
         </is>
       </c>
       <c r="E113" s="0">
-        <v>22</v>
-      </c>
-      <c r="F113" s="0">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G113" s="0">
-        <v>0</v>
-      </c>
-      <c r="H113" s="0">
-        <v>0</v>
-      </c>
-      <c r="I113" s="0">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="114">
       <c r="A114" s="0" t="inlineStr">
         <is>
-          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B114" s="0">
@@ -4107,396 +4115,13 @@
       </c>
       <c r="D114" s="0" t="inlineStr">
         <is>
-          <t>2024/09/01 - 2024/10/24</t>
+          <t>2024/11/01 - 2024/11/15</t>
         </is>
       </c>
       <c r="E114" s="0">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="G114" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="115">
-      <c r="A115" s="0" t="inlineStr">
-        <is>
-          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
-        </is>
-      </c>
-      <c r="B115" s="0">
-        <v>2024</v>
-      </c>
-      <c r="C115" s="0" t="inlineStr">
-        <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="D115" s="0" t="inlineStr">
-        <is>
-          <t>2024/10/24 - 2024/11/15</t>
-        </is>
-      </c>
-      <c r="E115" s="0">
-        <v>22</v>
-      </c>
-      <c r="F115" s="0">
-        <v>0</v>
-      </c>
-      <c r="G115" s="0">
-        <v>0</v>
-      </c>
-      <c r="H115" s="0">
-        <v>0</v>
-      </c>
-      <c r="I115" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="116">
-      <c r="A116" s="0" t="inlineStr">
-        <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
-        </is>
-      </c>
-      <c r="B116" s="0">
-        <v>2024</v>
-      </c>
-      <c r="C116" s="0" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="D116" s="0" t="inlineStr">
-        <is>
-          <t>2024/09/01 - 2024/10/24</t>
-        </is>
-      </c>
-      <c r="E116" s="0">
-        <v>53</v>
-      </c>
-      <c r="F116" s="0">
-        <v>11395</v>
-      </c>
-      <c r="G116" s="0">
-        <v>0</v>
-      </c>
-      <c r="H116" s="0">
-        <v>12661.111446516</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="117">
-      <c r="A117" s="0" t="inlineStr">
-        <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
-        </is>
-      </c>
-      <c r="B117" s="0">
-        <v>2024</v>
-      </c>
-      <c r="C117" s="0" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="D117" s="0" t="inlineStr">
-        <is>
-          <t>2024/10/24 - 2024/11/01</t>
-        </is>
-      </c>
-      <c r="E117" s="0">
-        <v>8</v>
-      </c>
-      <c r="F117" s="0">
-        <v>1828</v>
-      </c>
-      <c r="G117" s="0">
-        <v>0</v>
-      </c>
-      <c r="H117" s="0">
-        <v>2031.11116491718</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="118">
-      <c r="A118" s="0" t="inlineStr">
-        <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
-        </is>
-      </c>
-      <c r="B118" s="0">
-        <v>2024</v>
-      </c>
-      <c r="C118" s="0" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="D118" s="0" t="inlineStr">
-        <is>
-          <t>2024/11/01 - 2024/11/15</t>
-        </is>
-      </c>
-      <c r="E118" s="0">
-        <v>14</v>
-      </c>
-      <c r="F118" s="0">
-        <v>189</v>
-      </c>
-      <c r="G118" s="0">
-        <v>0</v>
-      </c>
-      <c r="H118" s="0">
-        <v>210.0000055631</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="119">
-      <c r="A119" s="0" t="inlineStr">
-        <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
-        </is>
-      </c>
-      <c r="B119" s="0">
-        <v>2024</v>
-      </c>
-      <c r="C119" s="0" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="D119" s="0" t="inlineStr">
-        <is>
-          <t>2024/09/01 - 2024/10/24</t>
-        </is>
-      </c>
-      <c r="E119" s="0">
-        <v>53</v>
-      </c>
-      <c r="G119" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="120">
-      <c r="A120" s="0" t="inlineStr">
-        <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
-        </is>
-      </c>
-      <c r="B120" s="0">
-        <v>2024</v>
-      </c>
-      <c r="C120" s="0" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="D120" s="0" t="inlineStr">
-        <is>
-          <t>2024/10/24 - 2024/11/01</t>
-        </is>
-      </c>
-      <c r="E120" s="0">
-        <v>8</v>
-      </c>
-      <c r="G120" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="121">
-      <c r="A121" s="0" t="inlineStr">
-        <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
-        </is>
-      </c>
-      <c r="B121" s="0">
-        <v>2024</v>
-      </c>
-      <c r="C121" s="0" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="D121" s="0" t="inlineStr">
-        <is>
-          <t>2024/11/01 - 2024/11/15</t>
-        </is>
-      </c>
-      <c r="E121" s="0">
-        <v>14</v>
-      </c>
-      <c r="G121" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="122">
-      <c r="A122" s="0" t="inlineStr">
-        <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
-        </is>
-      </c>
-      <c r="B122" s="0">
-        <v>2024</v>
-      </c>
-      <c r="C122" s="0" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
-      <c r="D122" s="0" t="inlineStr">
-        <is>
-          <t>2024/09/01 - 2024/10/24</t>
-        </is>
-      </c>
-      <c r="E122" s="0">
-        <v>53</v>
-      </c>
-      <c r="G122" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="123">
-      <c r="A123" s="0" t="inlineStr">
-        <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
-        </is>
-      </c>
-      <c r="B123" s="0">
-        <v>2024</v>
-      </c>
-      <c r="C123" s="0" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
-      <c r="D123" s="0" t="inlineStr">
-        <is>
-          <t>2024/10/24 - 2024/11/01</t>
-        </is>
-      </c>
-      <c r="E123" s="0">
-        <v>8</v>
-      </c>
-      <c r="F123" s="0">
-        <v>144</v>
-      </c>
-      <c r="G123" s="0">
-        <v>32</v>
-      </c>
-      <c r="H123" s="0">
-        <v>160.000004238553</v>
-      </c>
-      <c r="I123" s="0">
-        <v>35.5555564974561</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="124">
-      <c r="A124" s="0" t="inlineStr">
-        <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
-        </is>
-      </c>
-      <c r="B124" s="0">
-        <v>2024</v>
-      </c>
-      <c r="C124" s="0" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
-      <c r="D124" s="0" t="inlineStr">
-        <is>
-          <t>2024/11/01 - 2024/11/15</t>
-        </is>
-      </c>
-      <c r="E124" s="0">
-        <v>14</v>
-      </c>
-      <c r="F124" s="0">
-        <v>252</v>
-      </c>
-      <c r="G124" s="0">
-        <v>56</v>
-      </c>
-      <c r="H124" s="0">
-        <v>280.000007417467</v>
-      </c>
-      <c r="I124" s="0">
-        <v>62.2222238705482</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="125">
-      <c r="A125" s="0" t="inlineStr">
-        <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
-        </is>
-      </c>
-      <c r="B125" s="0">
-        <v>2024</v>
-      </c>
-      <c r="C125" s="0" t="inlineStr">
-        <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="D125" s="0" t="inlineStr">
-        <is>
-          <t>2024/09/01 - 2024/10/24</t>
-        </is>
-      </c>
-      <c r="E125" s="0">
-        <v>53</v>
-      </c>
-      <c r="G125" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="126">
-      <c r="A126" s="0" t="inlineStr">
-        <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
-        </is>
-      </c>
-      <c r="B126" s="0">
-        <v>2024</v>
-      </c>
-      <c r="C126" s="0" t="inlineStr">
-        <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="D126" s="0" t="inlineStr">
-        <is>
-          <t>2024/10/24 - 2024/11/01</t>
-        </is>
-      </c>
-      <c r="E126" s="0">
-        <v>8</v>
-      </c>
-      <c r="G126" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="127">
-      <c r="A127" s="0" t="inlineStr">
-        <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
-        </is>
-      </c>
-      <c r="B127" s="0">
-        <v>2024</v>
-      </c>
-      <c r="C127" s="0" t="inlineStr">
-        <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="D127" s="0" t="inlineStr">
-        <is>
-          <t>2024/11/01 - 2024/11/15</t>
-        </is>
-      </c>
-      <c r="E127" s="0">
-        <v>14</v>
-      </c>
-      <c r="G127" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/escapement/prelim-inseason/EscEstAUCResults_area20-22_2024.xlsx
+++ b/data/escapement/prelim-inseason/EscEstAUCResults_area20-22_2024.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="EscEstAUCResults"/>
   </sheets>
   <definedNames>
-    <definedName name="EscEstAUCResults">'EscEstAUCResults'!$A$1:$I$114</definedName>
+    <definedName name="EscEstAUCResults">'EscEstAUCResults'!$A$1:$I$122</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="0">
-        <v>852.631589646485</v>
+        <v>802.476790255515</v>
       </c>
       <c r="I51" s="0">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="0">
-        <v>95859.9342178819</v>
+        <v>90221.1145580065</v>
       </c>
       <c r="I52" s="0">
         <v>0</v>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="0">
-        <v>410012.5</v>
+        <v>385894.117647059</v>
       </c>
       <c r="I53" s="0">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="0">
-        <v>1049746.66666667</v>
+        <v>1026918.43137255</v>
       </c>
       <c r="I54" s="0">
         <v>0</v>
@@ -2546,10 +2546,10 @@
         <v>60</v>
       </c>
       <c r="H64" s="0">
-        <v>1240.00003695488</v>
+        <v>1500</v>
       </c>
       <c r="I64" s="0">
-        <v>62.000001847744</v>
+        <v>75</v>
       </c>
     </row>
     <row outlineLevel="0" r="65">
@@ -2581,10 +2581,10 @@
         <v>48</v>
       </c>
       <c r="H65" s="0">
-        <v>1048.0000295639</v>
+        <v>1280</v>
       </c>
       <c r="I65" s="0">
-        <v>49.6000014781952</v>
+        <v>60</v>
       </c>
     </row>
     <row outlineLevel="0" r="66">
@@ -2616,10 +2616,10 @@
         <v>110</v>
       </c>
       <c r="H66" s="0">
-        <v>1314.50002808204</v>
+        <v>1705</v>
       </c>
       <c r="I66" s="0">
-        <v>130.871797752004</v>
+        <v>169.230769230769</v>
       </c>
     </row>
     <row outlineLevel="0" r="67">
@@ -2651,10 +2651,10 @@
         <v>965</v>
       </c>
       <c r="H67" s="0">
-        <v>9819.99990114932</v>
+        <v>11460</v>
       </c>
       <c r="I67" s="0">
-        <v>1121.77220528904</v>
+        <v>1307.17948717949</v>
       </c>
     </row>
     <row outlineLevel="0" r="68">
@@ -2686,10 +2686,10 @@
         <v>1150.5</v>
       </c>
       <c r="H68" s="0">
-        <v>11556.999831517</v>
+        <v>13494</v>
       </c>
       <c r="I68" s="0">
-        <v>1360.5895764644</v>
+        <v>1603.33333333333</v>
       </c>
     </row>
     <row outlineLevel="0" r="69">
@@ -2721,10 +2721,10 @@
         <v>1064</v>
       </c>
       <c r="H69" s="0">
-        <v>12813.1114964592</v>
+        <v>13246.3336686647</v>
       </c>
       <c r="I69" s="0">
-        <v>1481.21390226176</v>
+        <v>1550.88892700643</v>
       </c>
     </row>
     <row outlineLevel="0" r="70">
@@ -2756,10 +2756,10 @@
         <v>3996</v>
       </c>
       <c r="H70" s="0">
-        <v>48180.001514544</v>
+        <v>48825.0012934208</v>
       </c>
       <c r="I70" s="0">
-        <v>5476.68219980992</v>
+        <v>5550.00014702479</v>
       </c>
     </row>
     <row outlineLevel="0" r="71">
@@ -3029,7 +3029,10 @@
         <v>0</v>
       </c>
       <c r="H79" s="0">
-        <v>1323.52936250401</v>
+        <v>1274.50976817253</v>
+      </c>
+      <c r="I79" s="0">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="80">
@@ -3061,7 +3064,10 @@
         <v>0</v>
       </c>
       <c r="H80" s="0">
-        <v>6464.70568431301</v>
+        <v>6748.36582378533</v>
+      </c>
+      <c r="I80" s="0">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="81">
@@ -3093,7 +3099,10 @@
         <v>0</v>
       </c>
       <c r="H81" s="0">
-        <v>3783.52933869015</v>
+        <v>4350.32667536224</v>
+      </c>
+      <c r="I81" s="0">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="82">
@@ -3125,7 +3134,10 @@
         <v>0</v>
       </c>
       <c r="H82" s="0">
-        <v>1537.48364288024</v>
+        <v>1732.12666978412</v>
+      </c>
+      <c r="I82" s="0">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="83">
@@ -3157,7 +3169,10 @@
         <v>5</v>
       </c>
       <c r="H83" s="0">
-        <v>855.555546330864</v>
+        <v>905.982929983257</v>
+      </c>
+      <c r="I83" s="0">
+        <v>8.54700877342696</v>
       </c>
     </row>
     <row outlineLevel="0" r="84">
@@ -3189,7 +3204,10 @@
         <v>6.5</v>
       </c>
       <c r="H84" s="0">
-        <v>567.666667899807</v>
+        <v>751.111129949123</v>
+      </c>
+      <c r="I84" s="0">
+        <v>11.111111405455</v>
       </c>
     </row>
     <row outlineLevel="0" r="85">
@@ -3221,7 +3239,10 @@
         <v>0</v>
       </c>
       <c r="H85" s="0">
-        <v>28</v>
+        <v>43.0769230769231</v>
+      </c>
+      <c r="I85" s="0">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="86">
@@ -3255,6 +3276,9 @@
       <c r="H86" s="0">
         <v>0</v>
       </c>
+      <c r="I86" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="0" t="inlineStr">
@@ -3279,13 +3303,13 @@
         <v>61</v>
       </c>
       <c r="F87" s="0">
-        <v>44255.5</v>
+        <v>49959</v>
       </c>
       <c r="G87" s="0">
         <v>0</v>
       </c>
       <c r="H87" s="0">
-        <v>51760.819362963</v>
+        <v>61677.7794116809</v>
       </c>
       <c r="I87" s="0">
         <v>0</v>
@@ -3314,13 +3338,13 @@
         <v>14</v>
       </c>
       <c r="F88" s="0">
-        <v>10157</v>
+        <v>11466</v>
       </c>
       <c r="G88" s="0">
         <v>0</v>
       </c>
       <c r="H88" s="0">
-        <v>11879.5323128112</v>
+        <v>14155.5559305497</v>
       </c>
       <c r="I88" s="0">
         <v>0</v>
@@ -3419,16 +3443,16 @@
         <v>61</v>
       </c>
       <c r="F91" s="0">
-        <v>854</v>
+        <v>1250.5</v>
       </c>
       <c r="G91" s="0">
-        <v>152.5</v>
+        <v>183</v>
       </c>
       <c r="H91" s="0">
-        <v>1067.49998409301</v>
+        <v>1736.80560156519</v>
       </c>
       <c r="I91" s="0">
-        <v>190.624997159466</v>
+        <v>254.166673399784</v>
       </c>
     </row>
     <row outlineLevel="0" r="92">
@@ -3454,16 +3478,16 @@
         <v>14</v>
       </c>
       <c r="F92" s="0">
-        <v>196</v>
+        <v>287</v>
       </c>
       <c r="G92" s="0">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H92" s="0">
-        <v>244.999996349216</v>
+        <v>398.6111216707</v>
       </c>
       <c r="I92" s="0">
-        <v>43.7499993480742</v>
+        <v>58.333334878639</v>
       </c>
     </row>
     <row outlineLevel="0" r="93">
@@ -3477,7 +3501,7 @@
       </c>
       <c r="C93" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D93" s="0" t="inlineStr">
@@ -3503,34 +3527,25 @@
       </c>
       <c r="C94" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D94" s="0" t="inlineStr">
         <is>
-          <t>2024/11/01 - 2024/11/15</t>
+          <t>2024/11/01 - 2024/11/02</t>
         </is>
       </c>
       <c r="E94" s="0">
-        <v>14</v>
-      </c>
-      <c r="F94" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="0">
-        <v>0</v>
-      </c>
-      <c r="H94" s="0">
-        <v>0</v>
-      </c>
-      <c r="I94" s="0">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="0" t="inlineStr">
         <is>
-          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B95" s="0">
@@ -3538,31 +3553,25 @@
       </c>
       <c r="C95" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D95" s="0" t="inlineStr">
         <is>
-          <t>2024/09/01 - 2024/10/24</t>
+          <t>2024/11/02 - 2024/11/15</t>
         </is>
       </c>
       <c r="E95" s="0">
-        <v>53</v>
-      </c>
-      <c r="F95" s="0">
-        <v>10070</v>
+        <v>13</v>
       </c>
       <c r="G95" s="0">
         <v>0</v>
-      </c>
-      <c r="H95" s="0">
-        <v>10070</v>
       </c>
     </row>
     <row outlineLevel="0" r="96">
       <c r="A96" s="0" t="inlineStr">
         <is>
-          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B96" s="0">
@@ -3570,34 +3579,25 @@
       </c>
       <c r="C96" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D96" s="0" t="inlineStr">
         <is>
-          <t>2024/10/24 - 2024/11/15</t>
+          <t>2024/09/01 - 2024/11/01</t>
         </is>
       </c>
       <c r="E96" s="0">
-        <v>22</v>
-      </c>
-      <c r="F96" s="0">
-        <v>4180</v>
+        <v>61</v>
       </c>
       <c r="G96" s="0">
-        <v>0</v>
-      </c>
-      <c r="H96" s="0">
-        <v>4180</v>
-      </c>
-      <c r="I96" s="0">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="97">
       <c r="A97" s="0" t="inlineStr">
         <is>
-          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B97" s="0">
@@ -3605,18 +3605,27 @@
       </c>
       <c r="C97" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D97" s="0" t="inlineStr">
         <is>
-          <t>2024/09/01 - 2024/10/24</t>
+          <t>2024/11/01 - 2024/11/15</t>
         </is>
       </c>
       <c r="E97" s="0">
-        <v>53</v>
+        <v>14</v>
+      </c>
+      <c r="F97" s="0">
+        <v>0</v>
       </c>
       <c r="G97" s="0">
+        <v>0</v>
+      </c>
+      <c r="H97" s="0">
+        <v>0</v>
+      </c>
+      <c r="I97" s="0">
         <v>0</v>
       </c>
     </row>
@@ -3631,25 +3640,25 @@
       </c>
       <c r="C98" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D98" s="0" t="inlineStr">
         <is>
-          <t>2024/10/24 - 2024/11/15</t>
+          <t>2024/09/01 - 2024/10/24</t>
         </is>
       </c>
       <c r="E98" s="0">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F98" s="0">
-        <v>0</v>
+        <v>10070</v>
       </c>
       <c r="G98" s="0">
         <v>0</v>
       </c>
       <c r="H98" s="0">
-        <v>0</v>
+        <v>11188.8888888889</v>
       </c>
       <c r="I98" s="0">
         <v>0</v>
@@ -3666,18 +3675,27 @@
       </c>
       <c r="C99" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D99" s="0" t="inlineStr">
         <is>
-          <t>2024/09/01 - 2024/10/24</t>
+          <t>2024/10/24 - 2024/11/15</t>
         </is>
       </c>
       <c r="E99" s="0">
-        <v>53</v>
+        <v>22</v>
+      </c>
+      <c r="F99" s="0">
+        <v>4180</v>
       </c>
       <c r="G99" s="0">
+        <v>0</v>
+      </c>
+      <c r="H99" s="0">
+        <v>4644.44444444444</v>
+      </c>
+      <c r="I99" s="0">
         <v>0</v>
       </c>
     </row>
@@ -3692,27 +3710,18 @@
       </c>
       <c r="C100" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D100" s="0" t="inlineStr">
         <is>
-          <t>2024/10/24 - 2024/11/15</t>
+          <t>2024/09/01 - 2024/10/24</t>
         </is>
       </c>
       <c r="E100" s="0">
-        <v>22</v>
-      </c>
-      <c r="F100" s="0">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="G100" s="0">
-        <v>0</v>
-      </c>
-      <c r="H100" s="0">
-        <v>0</v>
-      </c>
-      <c r="I100" s="0">
         <v>0</v>
       </c>
     </row>
@@ -3727,18 +3736,27 @@
       </c>
       <c r="C101" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D101" s="0" t="inlineStr">
         <is>
-          <t>2024/09/01 - 2024/10/24</t>
+          <t>2024/10/24 - 2024/11/15</t>
         </is>
       </c>
       <c r="E101" s="0">
-        <v>53</v>
+        <v>22</v>
+      </c>
+      <c r="F101" s="0">
+        <v>0</v>
       </c>
       <c r="G101" s="0">
+        <v>0</v>
+      </c>
+      <c r="H101" s="0">
+        <v>0</v>
+      </c>
+      <c r="I101" s="0">
         <v>0</v>
       </c>
     </row>
@@ -3753,34 +3771,25 @@
       </c>
       <c r="C102" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D102" s="0" t="inlineStr">
         <is>
-          <t>2024/10/24 - 2024/11/15</t>
+          <t>2024/09/01 - 2024/10/24</t>
         </is>
       </c>
       <c r="E102" s="0">
-        <v>22</v>
-      </c>
-      <c r="F102" s="0">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="G102" s="0">
-        <v>0</v>
-      </c>
-      <c r="H102" s="0">
-        <v>0</v>
-      </c>
-      <c r="I102" s="0">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="103">
       <c r="A103" s="0" t="inlineStr">
         <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B103" s="0">
@@ -3788,31 +3797,34 @@
       </c>
       <c r="C103" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D103" s="0" t="inlineStr">
         <is>
-          <t>2024/09/01 - 2024/10/24</t>
+          <t>2024/10/24 - 2024/11/15</t>
         </is>
       </c>
       <c r="E103" s="0">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F103" s="0">
-        <v>11395</v>
+        <v>0</v>
       </c>
       <c r="G103" s="0">
         <v>0</v>
       </c>
       <c r="H103" s="0">
-        <v>12661.111446516</v>
+        <v>0</v>
+      </c>
+      <c r="I103" s="0">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="104">
       <c r="A104" s="0" t="inlineStr">
         <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B104" s="0">
@@ -3820,31 +3832,25 @@
       </c>
       <c r="C104" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D104" s="0" t="inlineStr">
         <is>
-          <t>2024/10/24 - 2024/11/01</t>
+          <t>2024/09/01 - 2024/10/24</t>
         </is>
       </c>
       <c r="E104" s="0">
-        <v>8</v>
-      </c>
-      <c r="F104" s="0">
-        <v>1828</v>
+        <v>53</v>
       </c>
       <c r="G104" s="0">
         <v>0</v>
-      </c>
-      <c r="H104" s="0">
-        <v>2031.11116491718</v>
       </c>
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="0" t="inlineStr">
         <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B105" s="0">
@@ -3852,31 +3858,34 @@
       </c>
       <c r="C105" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D105" s="0" t="inlineStr">
         <is>
-          <t>2024/11/01 - 2024/11/15</t>
+          <t>2024/10/24 - 2024/11/15</t>
         </is>
       </c>
       <c r="E105" s="0">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F105" s="0">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="G105" s="0">
         <v>0</v>
       </c>
       <c r="H105" s="0">
-        <v>210.0000055631</v>
+        <v>0</v>
+      </c>
+      <c r="I105" s="0">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="0" t="inlineStr">
         <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B106" s="0">
@@ -3884,7 +3893,7 @@
       </c>
       <c r="C106" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D106" s="0" t="inlineStr">
@@ -3902,7 +3911,7 @@
     <row outlineLevel="0" r="107">
       <c r="A107" s="0" t="inlineStr">
         <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B107" s="0">
@@ -3910,18 +3919,27 @@
       </c>
       <c r="C107" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D107" s="0" t="inlineStr">
         <is>
-          <t>2024/10/24 - 2024/11/01</t>
+          <t>2024/10/24 - 2024/11/15</t>
         </is>
       </c>
       <c r="E107" s="0">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="F107" s="0">
+        <v>0</v>
       </c>
       <c r="G107" s="0">
+        <v>0</v>
+      </c>
+      <c r="H107" s="0">
+        <v>0</v>
+      </c>
+      <c r="I107" s="0">
         <v>0</v>
       </c>
     </row>
@@ -3936,18 +3954,27 @@
       </c>
       <c r="C108" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D108" s="0" t="inlineStr">
         <is>
-          <t>2024/11/01 - 2024/11/15</t>
+          <t>2024/09/01 - 2024/10/24</t>
         </is>
       </c>
       <c r="E108" s="0">
-        <v>14</v>
+        <v>53</v>
+      </c>
+      <c r="F108" s="0">
+        <v>11395</v>
       </c>
       <c r="G108" s="0">
+        <v>0</v>
+      </c>
+      <c r="H108" s="0">
+        <v>15826.389308145</v>
+      </c>
+      <c r="I108" s="0">
         <v>0</v>
       </c>
     </row>
@@ -3962,18 +3989,27 @@
       </c>
       <c r="C109" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D109" s="0" t="inlineStr">
         <is>
-          <t>2024/09/01 - 2024/10/24</t>
+          <t>2024/10/24 - 2024/11/01</t>
         </is>
       </c>
       <c r="E109" s="0">
-        <v>53</v>
+        <v>8</v>
+      </c>
+      <c r="F109" s="0">
+        <v>1828</v>
       </c>
       <c r="G109" s="0">
+        <v>0</v>
+      </c>
+      <c r="H109" s="0">
+        <v>2538.88895614648</v>
+      </c>
+      <c r="I109" s="0">
         <v>0</v>
       </c>
     </row>
@@ -3988,28 +4024,28 @@
       </c>
       <c r="C110" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D110" s="0" t="inlineStr">
         <is>
-          <t>2024/10/24 - 2024/11/01</t>
+          <t>2024/11/01 - 2024/11/15</t>
         </is>
       </c>
       <c r="E110" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F110" s="0">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="G110" s="0">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H110" s="0">
-        <v>160.000004238553</v>
+        <v>262.500006953875</v>
       </c>
       <c r="I110" s="0">
-        <v>35.5555564974561</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="111">
@@ -4023,28 +4059,19 @@
       </c>
       <c r="C111" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D111" s="0" t="inlineStr">
         <is>
-          <t>2024/11/01 - 2024/11/15</t>
+          <t>2024/09/01 - 2024/10/24</t>
         </is>
       </c>
       <c r="E111" s="0">
-        <v>14</v>
-      </c>
-      <c r="F111" s="0">
-        <v>252</v>
+        <v>53</v>
       </c>
       <c r="G111" s="0">
-        <v>56</v>
-      </c>
-      <c r="H111" s="0">
-        <v>280.000007417467</v>
-      </c>
-      <c r="I111" s="0">
-        <v>62.2222238705482</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="112">
@@ -4058,16 +4085,16 @@
       </c>
       <c r="C112" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D112" s="0" t="inlineStr">
         <is>
-          <t>2024/09/01 - 2024/10/24</t>
+          <t>2024/10/24 - 2024/11/01</t>
         </is>
       </c>
       <c r="E112" s="0">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="G112" s="0">
         <v>0</v>
@@ -4084,16 +4111,16 @@
       </c>
       <c r="C113" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D113" s="0" t="inlineStr">
         <is>
-          <t>2024/10/24 - 2024/11/01</t>
+          <t>2024/11/01 - 2024/11/15</t>
         </is>
       </c>
       <c r="E113" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G113" s="0">
         <v>0</v>
@@ -4110,18 +4137,244 @@
       </c>
       <c r="C114" s="0" t="inlineStr">
         <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>2024/09/01 - 2024/10/24</t>
+        </is>
+      </c>
+      <c r="E114" s="0">
+        <v>53</v>
+      </c>
+      <c r="G114" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B115" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t>2024/10/24 - 2024/11/01</t>
+        </is>
+      </c>
+      <c r="E115" s="0">
+        <v>8</v>
+      </c>
+      <c r="F115" s="0">
+        <v>144</v>
+      </c>
+      <c r="G115" s="0">
+        <v>32</v>
+      </c>
+      <c r="H115" s="0">
+        <v>228.571438519052</v>
+      </c>
+      <c r="I115" s="0">
+        <v>50.7936530042338</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B116" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="D116" s="0" t="inlineStr">
+        <is>
+          <t>2024/11/01 - 2024/11/15</t>
+        </is>
+      </c>
+      <c r="E116" s="0">
+        <v>14</v>
+      </c>
+      <c r="F116" s="0">
+        <v>252</v>
+      </c>
+      <c r="G116" s="0">
+        <v>56</v>
+      </c>
+      <c r="H116" s="0">
+        <v>400.000017408341</v>
+      </c>
+      <c r="I116" s="0">
+        <v>88.8888927574092</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B117" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t>2024/09/01 - 2024/10/24</t>
+        </is>
+      </c>
+      <c r="E117" s="0">
+        <v>53</v>
+      </c>
+      <c r="G117" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B118" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+      <c r="D118" s="0" t="inlineStr">
+        <is>
+          <t>2024/10/24 - 2024/11/01</t>
+        </is>
+      </c>
+      <c r="E118" s="0">
+        <v>8</v>
+      </c>
+      <c r="G118" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B119" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+      <c r="D119" s="0" t="inlineStr">
+        <is>
+          <t>2024/11/01 - 2024/11/15</t>
+        </is>
+      </c>
+      <c r="E119" s="0">
+        <v>14</v>
+      </c>
+      <c r="G119" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B120" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
           <t>SK</t>
         </is>
       </c>
-      <c r="D114" s="0" t="inlineStr">
+      <c r="D120" s="0" t="inlineStr">
+        <is>
+          <t>2024/09/01 - 2024/10/24</t>
+        </is>
+      </c>
+      <c r="E120" s="0">
+        <v>53</v>
+      </c>
+      <c r="G120" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B121" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t>2024/10/24 - 2024/11/01</t>
+        </is>
+      </c>
+      <c r="E121" s="0">
+        <v>8</v>
+      </c>
+      <c r="G121" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B122" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="D122" s="0" t="inlineStr">
         <is>
           <t>2024/11/01 - 2024/11/15</t>
         </is>
       </c>
-      <c r="E114" s="0">
+      <c r="E122" s="0">
         <v>14</v>
       </c>
-      <c r="G114" s="0">
+      <c r="G122" s="0">
         <v>0</v>
       </c>
     </row>
